--- a/test_gaussian_data_BACKUP.xlsx
+++ b/test_gaussian_data_BACKUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candace_chung/Desktop/Candace Chung Files/ICL/Academics/Year 4/MSci Project/code/MSci_Atrial_Fib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA8157-4140-4F41-B699-4053D5154A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B8CAE5-912E-DF46-92E7-0C2B97347A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signals" sheetId="1" r:id="rId1"/>
@@ -409,52 +409,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.42375930461724121</v>
+        <v>0.30260299078628677</v>
       </c>
       <c r="C2">
-        <v>7.3359078550028003E-2</v>
+        <v>4.6130232155145593E-3</v>
       </c>
       <c r="D2">
-        <v>7.8100784964127432E-3</v>
+        <v>1.0208945375790559E-5</v>
       </c>
       <c r="E2">
-        <v>5.0890615173129912E-4</v>
+        <v>3.2763242962274061E-9</v>
       </c>
       <c r="F2">
-        <v>2.1677957968811679E-22</v>
+        <v>1.188574162974455E-22</v>
       </c>
       <c r="G2">
-        <v>1.449074583065444E-25</v>
+        <v>3.1984528968048362E-29</v>
       </c>
       <c r="H2">
-        <v>5.9570331772753059E-29</v>
+        <v>1.249500542030192E-36</v>
       </c>
       <c r="I2">
-        <v>1.5053021174216981E-32</v>
+        <v>7.0862108233815655E-45</v>
       </c>
       <c r="J2">
-        <v>2.8920363003325848E-71</v>
+        <v>5.1576242275340887E-71</v>
       </c>
       <c r="K2">
-        <v>7.4647257666700093E-77</v>
+        <v>2.4499917440975059E-82</v>
       </c>
       <c r="L2">
-        <v>1.184925064730443E-82</v>
+        <v>1.689516199196055E-94</v>
       </c>
       <c r="M2">
-        <v>1.156701270306425E-88</v>
+        <v>1.691386711496872E-107</v>
       </c>
       <c r="N2">
-        <v>1.006179250621769E-147</v>
+        <v>2.472540714300493E-146</v>
       </c>
       <c r="O2">
-        <v>1.0028205464997791E-155</v>
+        <v>2.0732879569577731E-162</v>
       </c>
       <c r="P2">
-        <v>6.1466431559041869E-164</v>
+        <v>2.5238213739892239E-179</v>
       </c>
       <c r="Q2">
-        <v>2.3169632512776719E-172</v>
+        <v>4.4600570987259403E-197</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -462,52 +462,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0893632021444419</v>
+        <v>2.583102755730093</v>
       </c>
       <c r="C3">
-        <v>0.26567146195711522</v>
+        <v>0.23241513751967269</v>
       </c>
       <c r="D3">
-        <v>3.9845934903279631E-2</v>
+        <v>3.0357776172985269E-3</v>
       </c>
       <c r="E3">
-        <v>3.6576648369293081E-3</v>
+        <v>5.7502438331700068E-6</v>
       </c>
       <c r="F3">
-        <v>2.8008715753457469E-20</v>
+        <v>2.3928279420597639E-17</v>
       </c>
       <c r="G3">
-        <v>2.6375648679812191E-23</v>
+        <v>3.80045372910265E-23</v>
       </c>
       <c r="H3">
-        <v>1.5274957606790351E-26</v>
+        <v>8.7627867483840878E-30</v>
       </c>
       <c r="I3">
-        <v>5.4376500144603592E-30</v>
+        <v>2.9331222667780969E-37</v>
       </c>
       <c r="J3">
-        <v>1.8780188132728941E-67</v>
+        <v>2.4487903366132199E-61</v>
       </c>
       <c r="K3">
-        <v>6.8288510574176926E-73</v>
+        <v>6.8655736494627201E-72</v>
       </c>
       <c r="L3">
-        <v>1.527081631901131E-78</v>
+        <v>2.7943761989641881E-83</v>
       </c>
       <c r="M3">
-        <v>2.100052557963075E-84</v>
+        <v>1.6511089498697871E-95</v>
       </c>
       <c r="N3">
-        <v>3.2839227188816921E-142</v>
+        <v>2.7686118704909099E-132</v>
       </c>
       <c r="O3">
-        <v>4.610822235997465E-150</v>
+        <v>1.3702144837741921E-147</v>
       </c>
       <c r="P3">
-        <v>3.9813535058959622E-158</v>
+        <v>9.8445948315752233E-164</v>
       </c>
       <c r="Q3">
-        <v>2.1142165565542819E-166</v>
+        <v>1.026809682832225E-180</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -515,52 +515,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.1993967758704338</v>
+        <v>4.3065904306127676</v>
       </c>
       <c r="C4">
-        <v>0.75563727450063789</v>
+        <v>2.2870023090261169</v>
       </c>
       <c r="D4">
-        <v>0.15965777499755679</v>
+        <v>0.17631223501162899</v>
       </c>
       <c r="E4">
-        <v>2.0646552410882521E-2</v>
+        <v>1.971101829321662E-3</v>
       </c>
       <c r="F4">
-        <v>2.8421399002294709E-18</v>
+        <v>9.4084932838461848E-13</v>
       </c>
       <c r="G4">
-        <v>3.7704482912098261E-21</v>
+        <v>8.8197111294892375E-18</v>
       </c>
       <c r="H4">
-        <v>3.076149495256971E-24</v>
+        <v>1.200249291857902E-23</v>
       </c>
       <c r="I4">
-        <v>1.5426814582277131E-27</v>
+        <v>2.3712081903547469E-30</v>
       </c>
       <c r="J4">
-        <v>9.5779720746586589E-64</v>
+        <v>2.2707897747214838E-52</v>
       </c>
       <c r="K4">
-        <v>4.9063536923700332E-69</v>
+        <v>3.757616562567222E-62</v>
       </c>
       <c r="L4">
-        <v>1.5456496141254299E-74</v>
+        <v>9.026737403053E-73</v>
       </c>
       <c r="M4">
-        <v>2.994446406185287E-80</v>
+        <v>3.147980043237067E-84</v>
       </c>
       <c r="N4">
-        <v>8.4175931034855944E-137</v>
+        <v>6.0548602415703762E-119</v>
       </c>
       <c r="O4">
-        <v>1.6649874470160619E-144</v>
+        <v>1.7686459519233481E-133</v>
       </c>
       <c r="P4">
-        <v>2.0253538475743128E-152</v>
+        <v>7.4999868387889822E-149</v>
       </c>
       <c r="Q4">
-        <v>1.5151555556390251E-160</v>
+        <v>4.6170323105152739E-165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -568,52 +568,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.4874813703652392</v>
+        <v>1.402325660332713</v>
       </c>
       <c r="C5">
-        <v>1.687948800894193</v>
+        <v>4.3953373844965471</v>
       </c>
       <c r="D5">
-        <v>0.50242767491168427</v>
+        <v>1.9999464561113649</v>
       </c>
       <c r="E5">
-        <v>9.1531084468135307E-2</v>
+        <v>0.13196394276828241</v>
       </c>
       <c r="F5">
-        <v>2.2650361427543419E-16</v>
+        <v>7.2252371889617658E-9</v>
       </c>
       <c r="G5">
-        <v>4.2331168627327971E-19</v>
+        <v>3.9975756797859189E-13</v>
       </c>
       <c r="H5">
-        <v>4.8653298692849325E-22</v>
+        <v>3.2108801526418859E-18</v>
       </c>
       <c r="I5">
-        <v>3.4373099651056948E-25</v>
+        <v>3.7439723055780428E-24</v>
       </c>
       <c r="J5">
-        <v>3.8364065488007363E-60</v>
+        <v>4.1126871930793421E-44</v>
       </c>
       <c r="K5">
-        <v>2.768518909143016E-65</v>
+        <v>4.0167195880196461E-53</v>
       </c>
       <c r="L5">
-        <v>1.2286757178535071E-70</v>
+        <v>5.6950844082654018E-63</v>
       </c>
       <c r="M5">
-        <v>3.3533613502629309E-76</v>
+        <v>1.1722267591538029E-73</v>
       </c>
       <c r="N5">
-        <v>1.6945732959707081E-131</v>
+        <v>2.586244567561889E-106</v>
       </c>
       <c r="O5">
-        <v>4.7219455783238553E-139</v>
+        <v>4.4587864901948482E-120</v>
       </c>
       <c r="P5">
-        <v>8.0918627419414617E-147</v>
+        <v>1.115954730200501E-134</v>
       </c>
       <c r="Q5">
-        <v>8.5279060060362594E-155</v>
+        <v>4.0547052915262571E-150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -621,52 +621,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.3430780866108138</v>
+        <v>8.9184136680007173E-2</v>
       </c>
       <c r="C6">
-        <v>2.9613012854715288</v>
+        <v>1.649837810880312</v>
       </c>
       <c r="D6">
-        <v>1.241750842547686</v>
+        <v>4.4307547125817131</v>
       </c>
       <c r="E6">
-        <v>0.3186890210780014</v>
+        <v>1.725539582678125</v>
       </c>
       <c r="F6">
-        <v>1.4176931806087671E-14</v>
+        <v>1.083696222803993E-5</v>
       </c>
       <c r="G6">
-        <v>3.7325441747367527E-17</v>
+        <v>3.538852400009501E-9</v>
       </c>
       <c r="H6">
-        <v>6.0435841452406079E-20</v>
+        <v>1.677645338867312E-13</v>
       </c>
       <c r="I6">
-        <v>6.0150406102075561E-23</v>
+        <v>1.1545666015648661E-18</v>
       </c>
       <c r="J6">
-        <v>1.206849486779982E-56</v>
+        <v>1.45478176658672E-36</v>
       </c>
       <c r="K6">
-        <v>1.2269124254644871E-61</v>
+        <v>8.3859832103693351E-45</v>
       </c>
       <c r="L6">
-        <v>7.6708047825689265E-67</v>
+        <v>7.0176700249244593E-54</v>
       </c>
       <c r="M6">
-        <v>2.94931794735905E-72</v>
+        <v>8.5253989926348744E-64</v>
       </c>
       <c r="N6">
-        <v>2.6792313552449059E-126</v>
+        <v>2.1575381379994999E-94</v>
       </c>
       <c r="O6">
-        <v>1.0517400704924141E-133</v>
+        <v>2.1954111744254759E-107</v>
       </c>
       <c r="P6">
-        <v>2.539063338762595E-141</v>
+        <v>3.2430681505060681E-121</v>
       </c>
       <c r="Q6">
-        <v>3.7696846098049681E-149</v>
+        <v>6.9547111237383447E-136</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -674,52 +674,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.2477681927141742</v>
+        <v>1.1077704239845459E-3</v>
       </c>
       <c r="C7">
-        <v>4.080217837580804</v>
+        <v>0.1209521826077781</v>
       </c>
       <c r="D7">
-        <v>2.4103094448664808</v>
+        <v>1.917169314383484</v>
       </c>
       <c r="E7">
-        <v>0.87145110641359635</v>
+        <v>4.4067457182481071</v>
       </c>
       <c r="F7">
-        <v>6.9689410927542058E-13</v>
+        <v>3.1745811438345511E-3</v>
       </c>
       <c r="G7">
-        <v>2.584800825736428E-15</v>
+        <v>6.1185938505662844E-6</v>
       </c>
       <c r="H7">
-        <v>5.8959566928878201E-18</v>
+        <v>1.71198373826831E-9</v>
       </c>
       <c r="I7">
-        <v>8.2667700944056079E-21</v>
+        <v>6.9539053451308182E-14</v>
       </c>
       <c r="J7">
-        <v>2.9816662242106061E-53</v>
+        <v>1.005063360995234E-29</v>
       </c>
       <c r="K7">
-        <v>4.2702870032650322E-58</v>
+        <v>3.419478556341543E-37</v>
       </c>
       <c r="L7">
-        <v>3.7611617818581961E-63</v>
+        <v>1.6889202525744699E-45</v>
       </c>
       <c r="M7">
-        <v>2.037230933829853E-68</v>
+        <v>1.210991841308967E-54</v>
       </c>
       <c r="N7">
-        <v>3.3268828269227171E-121</v>
+        <v>3.5153679819793576E-83</v>
       </c>
       <c r="O7">
-        <v>1.8398113463085699E-128</v>
+        <v>2.1112442795609049E-95</v>
       </c>
       <c r="P7">
-        <v>6.2571417173984427E-136</v>
+        <v>1.8407253549483099E-108</v>
       </c>
       <c r="Q7">
-        <v>1.3087149312743009E-143</v>
+        <v>2.3298197304507849E-122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -727,52 +727,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.2628823041644028</v>
+        <v>2.6874187369238869E-6</v>
       </c>
       <c r="C8">
-        <v>4.4153133900216179</v>
+        <v>1.731847266802838E-3</v>
       </c>
       <c r="D8">
-        <v>3.6744180940127311</v>
+        <v>0.16201926287243781</v>
       </c>
       <c r="E8">
-        <v>1.8715282125738391</v>
+        <v>2.1980343641041169</v>
       </c>
       <c r="F8">
-        <v>2.6904737921962049E-11</v>
+        <v>0.18163047832456999</v>
       </c>
       <c r="G8">
-        <v>1.4058100393267799E-13</v>
+        <v>2.0661613065025182E-3</v>
       </c>
       <c r="H8">
-        <v>4.5174299389087554E-16</v>
+        <v>3.4121061795822911E-6</v>
       </c>
       <c r="I8">
-        <v>8.9229936693370425E-19</v>
+        <v>8.180163440418406E-10</v>
       </c>
       <c r="J8">
-        <v>5.7855196188757101E-50</v>
+        <v>1.3561647601580239E-23</v>
       </c>
       <c r="K8">
-        <v>1.167287927150686E-54</v>
+        <v>2.723260597099652E-30</v>
       </c>
       <c r="L8">
-        <v>1.448373358761272E-59</v>
+        <v>7.9386885698822294E-38</v>
       </c>
       <c r="M8">
-        <v>1.1051885060193791E-64</v>
+        <v>3.3596276182423848E-46</v>
       </c>
       <c r="N8">
-        <v>3.2444584936326007E-116</v>
+        <v>1.118681680202099E-72</v>
       </c>
       <c r="O8">
-        <v>2.527642182435039E-123</v>
+        <v>3.965377362509067E-84</v>
       </c>
       <c r="P8">
-        <v>1.211032720061658E-130</v>
+        <v>2.0405410479763101E-96</v>
       </c>
       <c r="Q8">
-        <v>3.5683095921944723E-138</v>
+        <v>1.5243649830264491E-109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -780,52 +780,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.968427563752807</v>
+        <v>1.2733398690987529E-9</v>
       </c>
       <c r="C9">
-        <v>3.752469299694809</v>
+        <v>4.8431608059291211E-6</v>
       </c>
       <c r="D9">
-        <v>4.3992816654747013</v>
+        <v>2.674214605243135E-3</v>
       </c>
       <c r="E9">
-        <v>3.1566552985685719</v>
+        <v>0.21412845638487429</v>
       </c>
       <c r="F9">
-        <v>8.1577082191912923E-10</v>
+        <v>2.0296186393027789</v>
       </c>
       <c r="G9">
-        <v>6.0048702292242221E-12</v>
+        <v>0.13626999627864619</v>
       </c>
       <c r="H9">
-        <v>2.718353896617019E-14</v>
+        <v>1.3282164697231869E-3</v>
       </c>
       <c r="I9">
-        <v>7.5641954024694754E-17</v>
+        <v>1.8793973440381621E-6</v>
       </c>
       <c r="J9">
-        <v>8.8166407443811121E-47</v>
+        <v>3.5740028170332638E-18</v>
       </c>
       <c r="K9">
-        <v>2.5059727961783899E-51</v>
+        <v>4.2358633540138031E-24</v>
       </c>
       <c r="L9">
-        <v>4.3804272345999994E-56</v>
+        <v>7.2880578025665436E-31</v>
       </c>
       <c r="M9">
-        <v>4.7087961150108327E-61</v>
+        <v>1.820390204781058E-38</v>
       </c>
       <c r="N9">
-        <v>2.4849884195160641E-111</v>
+        <v>6.9528951596867144E-63</v>
       </c>
       <c r="O9">
-        <v>2.727315152002371E-118</v>
+        <v>1.4546348285041281E-73</v>
       </c>
       <c r="P9">
-        <v>1.8408279181939171E-125</v>
+        <v>4.417993761193197E-85</v>
       </c>
       <c r="Q9">
-        <v>7.6411271538401758E-133</v>
+        <v>1.947955495535296E-97</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -833,52 +833,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.93264184314817344</v>
+        <v>1.1783566458203981E-13</v>
       </c>
       <c r="C10">
-        <v>2.5046681344098221</v>
+        <v>2.6452797731764379E-9</v>
       </c>
       <c r="D10">
-        <v>4.1366844677461909</v>
+        <v>8.6208339981263582E-6</v>
       </c>
       <c r="E10">
-        <v>4.1815314874870237</v>
+        <v>4.0741565823294778E-3</v>
       </c>
       <c r="F10">
-        <v>1.942607220088393E-8</v>
+        <v>4.4295905120311554</v>
       </c>
       <c r="G10">
-        <v>2.0144571854689401E-10</v>
+        <v>1.7553336791810421</v>
       </c>
       <c r="H10">
-        <v>1.2846889697789211E-12</v>
+        <v>0.1009807534134574</v>
       </c>
       <c r="I10">
-        <v>5.0360765497211742E-15</v>
+        <v>8.4333215218906465E-4</v>
       </c>
       <c r="J10">
-        <v>1.05521595245575E-43</v>
+        <v>1.8395887608019399E-13</v>
       </c>
       <c r="K10">
-        <v>4.2252473667676151E-48</v>
+        <v>1.2868208902076909E-18</v>
       </c>
       <c r="L10">
-        <v>1.040470669944525E-52</v>
+        <v>1.3067673451540479E-24</v>
       </c>
       <c r="M10">
-        <v>1.575653949986297E-57</v>
+        <v>1.926465601761126E-31</v>
       </c>
       <c r="N10">
-        <v>1.4948029456917841E-106</v>
+        <v>8.4401129250273575E-54</v>
       </c>
       <c r="O10">
-        <v>2.3111731600064731E-113</v>
+        <v>1.042189905015323E-63</v>
       </c>
       <c r="P10">
-        <v>2.19759640806783E-120</v>
+        <v>1.868221142277194E-74</v>
       </c>
       <c r="Q10">
-        <v>1.285078788695624E-127</v>
+        <v>4.8617488339233517E-86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -886,52 +886,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.34704659197514132</v>
+        <v>2.1297694611930851E-18</v>
       </c>
       <c r="C11">
-        <v>1.3129877144472779</v>
+        <v>2.8218748892216929E-13</v>
       </c>
       <c r="D11">
-        <v>3.0549242914231982</v>
+        <v>5.4278236646279073E-9</v>
       </c>
       <c r="E11">
-        <v>4.350318076320133</v>
+        <v>1.513995094122551E-5</v>
       </c>
       <c r="F11">
-        <v>3.6331159517640197E-7</v>
+        <v>1.888148463649935</v>
       </c>
       <c r="G11">
-        <v>5.3074985706150673E-9</v>
+        <v>4.4161371114117562</v>
       </c>
       <c r="H11">
-        <v>4.7683422984351813E-11</v>
+        <v>1.4994492584501431</v>
       </c>
       <c r="I11">
-        <v>2.6332939160320499E-13</v>
+        <v>7.3909817390949595E-2</v>
       </c>
       <c r="J11">
-        <v>9.9187508367244447E-41</v>
+        <v>1.849311312163028E-9</v>
       </c>
       <c r="K11">
-        <v>5.5950678388158043E-45</v>
+        <v>7.6351519624335124E-14</v>
       </c>
       <c r="L11">
-        <v>1.9409781361832662E-49</v>
+        <v>4.5762333303436893E-19</v>
       </c>
       <c r="M11">
-        <v>4.1408474173750378E-54</v>
+        <v>3.98181840158949E-25</v>
       </c>
       <c r="N11">
-        <v>7.0618900261371378E-102</v>
+        <v>2.0010330212217721E-45</v>
       </c>
       <c r="O11">
-        <v>1.5381796969823551E-108</v>
+        <v>1.458354695186209E-54</v>
       </c>
       <c r="P11">
-        <v>2.060440653350178E-115</v>
+        <v>1.5429607855555692E-64</v>
       </c>
       <c r="Q11">
-        <v>1.6973816899372889E-122</v>
+        <v>2.3698967676967402E-75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -939,52 +939,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1014233849715984</v>
+        <v>7.5181650694280867E-24</v>
       </c>
       <c r="C12">
-        <v>0.5405657973946818</v>
+        <v>5.8793230017792499E-18</v>
       </c>
       <c r="D12">
-        <v>1.771845856166238</v>
+        <v>6.6746054621203804E-13</v>
       </c>
       <c r="E12">
-        <v>3.5545455302297269</v>
+        <v>1.098840457857726E-8</v>
       </c>
       <c r="F12">
-        <v>5.3364316108133756E-6</v>
+        <v>0.1571926083730425</v>
       </c>
       <c r="G12">
-        <v>1.0982448097877359E-7</v>
+        <v>2.1699455368040681</v>
       </c>
       <c r="H12">
-        <v>1.389998340694579E-9</v>
+        <v>4.3485889960179671</v>
       </c>
       <c r="I12">
-        <v>1.081393557369469E-11</v>
+        <v>1.265112136353894</v>
       </c>
       <c r="J12">
-        <v>7.322342560472745E-38</v>
+        <v>3.6309705510294459E-6</v>
       </c>
       <c r="K12">
-        <v>5.8188344675647008E-42</v>
+        <v>8.8479098601762638E-10</v>
       </c>
       <c r="L12">
-        <v>2.843733366214945E-46</v>
+        <v>3.1299793198373712E-14</v>
       </c>
       <c r="M12">
-        <v>8.5466327447834449E-51</v>
+        <v>1.60740406192758E-19</v>
       </c>
       <c r="N12">
-        <v>2.62020568370211E-97</v>
+        <v>9.2658160741435525E-38</v>
       </c>
       <c r="O12">
-        <v>8.0400563610337731E-104</v>
+        <v>3.985684226382213E-46</v>
       </c>
       <c r="P12">
-        <v>1.5172240313226611E-110</v>
+        <v>2.4888854923400389E-55</v>
       </c>
       <c r="Q12">
-        <v>1.7607865009338432E-117</v>
+        <v>2.2562632007849089E-65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -992,52 +992,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.327908183642257E-2</v>
+        <v>5.1833977996980212E-30</v>
       </c>
       <c r="C13">
-        <v>0.17478891802811669</v>
+        <v>2.3924358824020619E-23</v>
       </c>
       <c r="D13">
-        <v>0.80710279612007163</v>
+        <v>1.6030567256255281E-17</v>
       </c>
       <c r="E13">
-        <v>2.280996297694343</v>
+        <v>1.55764410613408E-12</v>
       </c>
       <c r="F13">
-        <v>6.1560206320743368E-5</v>
+        <v>2.5559451106549908E-3</v>
       </c>
       <c r="G13">
-        <v>1.7847848152719761E-6</v>
+        <v>0.20824689762318491</v>
       </c>
       <c r="H13">
-        <v>3.1822813157180129E-8</v>
+        <v>2.4631358938258718</v>
       </c>
       <c r="I13">
-        <v>3.487752423707396E-10</v>
+        <v>4.2294056035988028</v>
       </c>
       <c r="J13">
-        <v>4.245418750127635E-35</v>
+        <v>1.392383437186683E-3</v>
       </c>
       <c r="K13">
-        <v>4.7527402327785007E-39</v>
+        <v>2.002567277757662E-6</v>
       </c>
       <c r="L13">
-        <v>3.2721600141911781E-43</v>
+        <v>4.1811735844929048E-10</v>
       </c>
       <c r="M13">
-        <v>1.385409898276078E-47</v>
+        <v>1.2673369443732411E-14</v>
       </c>
       <c r="N13">
-        <v>7.6353200815527949E-93</v>
+        <v>8.3798552457139993E-31</v>
       </c>
       <c r="O13">
-        <v>3.3005669072451542E-99</v>
+        <v>2.12748268052281E-38</v>
       </c>
       <c r="P13">
-        <v>8.774386183001336E-106</v>
+        <v>7.8411247878386574E-47</v>
       </c>
       <c r="Q13">
-        <v>1.4345355535995861E-112</v>
+        <v>4.1954013480477569E-56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1045,52 +1045,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.1963434174589224E-3</v>
+        <v>6.9797624947193644E-37</v>
       </c>
       <c r="C14">
-        <v>4.438708794393486E-2</v>
+        <v>1.901414126585368E-29</v>
       </c>
       <c r="D14">
-        <v>0.28874149167421481</v>
+        <v>7.5196149595073538E-23</v>
       </c>
       <c r="E14">
-        <v>1.1495887589970299</v>
+        <v>4.3124617168974408E-17</v>
       </c>
       <c r="F14">
-        <v>5.5773335052632686E-4</v>
+        <v>8.116977596131501E-6</v>
       </c>
       <c r="G14">
-        <v>2.2779804599532721E-5</v>
+        <v>3.9032976340023168E-3</v>
       </c>
       <c r="H14">
-        <v>5.721900286746513E-7</v>
+        <v>0.27249077560974228</v>
       </c>
       <c r="I14">
-        <v>8.8345605118462768E-9</v>
+        <v>2.7615510269448298</v>
       </c>
       <c r="J14">
-        <v>1.9331629094842181E-32</v>
+        <v>0.10428417079170391</v>
       </c>
       <c r="K14">
-        <v>3.0488045406557517E-36</v>
+        <v>8.8523171117588847E-4</v>
       </c>
       <c r="L14">
-        <v>2.957042878562059E-40</v>
+        <v>1.090883441080265E-6</v>
       </c>
       <c r="M14">
-        <v>1.763757848124157E-44</v>
+        <v>1.951562887815296E-10</v>
       </c>
       <c r="N14">
-        <v>1.7474169363833401E-88</v>
+        <v>1.4801740285921929E-24</v>
       </c>
       <c r="O14">
-        <v>1.06413179101465E-94</v>
+        <v>2.2179543347401509E-31</v>
       </c>
       <c r="P14">
-        <v>3.9853017155454489E-101</v>
+        <v>4.8247546842485269E-39</v>
       </c>
       <c r="Q14">
-        <v>9.1789575585247642E-108</v>
+        <v>1.523634115319682E-47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1098,52 +1098,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.9409189450098016E-4</v>
+        <v>1.835651236937883E-44</v>
       </c>
       <c r="C15">
-        <v>8.8527223296003248E-3</v>
+        <v>2.951457585989272E-36</v>
       </c>
       <c r="D15">
-        <v>8.1127289993910071E-2</v>
+        <v>6.8891515322207253E-29</v>
       </c>
       <c r="E15">
-        <v>0.45502773199328511</v>
+        <v>2.331877279727198E-22</v>
       </c>
       <c r="F15">
-        <v>3.9685384432941104E-3</v>
+        <v>5.0345492438991876E-9</v>
       </c>
       <c r="G15">
-        <v>2.283450259612343E-4</v>
+        <v>1.42892099768122E-5</v>
       </c>
       <c r="H15">
-        <v>8.0801501440263018E-6</v>
+        <v>5.8876049099653178E-3</v>
       </c>
       <c r="I15">
-        <v>1.7575256806903551E-7</v>
+        <v>0.35216827496987929</v>
       </c>
       <c r="J15">
-        <v>6.9134337196441143E-30</v>
+        <v>1.525461873184591</v>
       </c>
       <c r="K15">
-        <v>1.536004600177843E-33</v>
+        <v>7.6427601810632143E-2</v>
       </c>
       <c r="L15">
-        <v>2.098737584928829E-37</v>
+        <v>5.5588111843454747E-4</v>
       </c>
       <c r="M15">
-        <v>1.7635064868257599E-41</v>
+        <v>5.8694367612010608E-7</v>
       </c>
       <c r="N15">
-        <v>3.140821554491182E-84</v>
+        <v>5.1063721693908475E-19</v>
       </c>
       <c r="O15">
-        <v>2.694509531605421E-90</v>
+        <v>4.5160900064907784E-25</v>
       </c>
       <c r="P15">
-        <v>1.4216185987825241E-96</v>
+        <v>5.798231206674837E-32</v>
       </c>
       <c r="Q15">
-        <v>4.6126747913464548E-103</v>
+        <v>1.080715262298671E-39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1151,52 +1151,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.6056211329503057E-5</v>
+        <v>9.4289453671170471E-53</v>
       </c>
       <c r="C16">
-        <v>1.3866742810605471E-3</v>
+        <v>8.9478727361987414E-44</v>
       </c>
       <c r="D16">
-        <v>1.790202549327579E-2</v>
+        <v>1.2327053858001189E-35</v>
       </c>
       <c r="E16">
-        <v>0.14145250813232821</v>
+        <v>2.4626888883582289E-28</v>
       </c>
       <c r="F16">
-        <v>2.2177469876555059E-2</v>
+        <v>6.0988824192966157E-13</v>
       </c>
       <c r="G16">
-        <v>1.797672382281883E-3</v>
+        <v>1.021664232930358E-8</v>
       </c>
       <c r="H16">
-        <v>8.961402946195539E-5</v>
+        <v>2.4845568256896789E-5</v>
       </c>
       <c r="I16">
-        <v>2.7459703187970391E-6</v>
+        <v>8.7714382300523187E-3</v>
       </c>
       <c r="J16">
-        <v>1.941764613703358E-27</v>
+        <v>4.3582059017120471</v>
       </c>
       <c r="K16">
-        <v>6.0776107196001272E-31</v>
+        <v>1.2887447916472621</v>
       </c>
       <c r="L16">
-        <v>1.1698659142614149E-34</v>
+        <v>5.5323406985792918E-2</v>
       </c>
       <c r="M16">
-        <v>1.3848176591467761E-38</v>
+        <v>3.447733800079924E-4</v>
       </c>
       <c r="N16">
-        <v>4.4337113329121929E-80</v>
+        <v>3.4406109788051498E-14</v>
       </c>
       <c r="O16">
-        <v>5.3584780951385847E-86</v>
+        <v>1.795957268461101E-19</v>
       </c>
       <c r="P16">
-        <v>3.9827442230785612E-92</v>
+        <v>1.360940828684812E-25</v>
       </c>
       <c r="Q16">
-        <v>1.8204960479284599E-98</v>
+        <v>1.497149959708683E-32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1204,52 +1204,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.7683436297977001E-6</v>
+        <v>9.4593106694483108E-62</v>
       </c>
       <c r="C17">
-        <v>1.7058840479145971E-4</v>
+        <v>5.2981771130624093E-52</v>
       </c>
       <c r="D17">
-        <v>3.1025215219374069E-3</v>
+        <v>4.3080057179847033E-43</v>
       </c>
       <c r="E17">
-        <v>3.4535111959883458E-2</v>
+        <v>5.0796855920766463E-35</v>
       </c>
       <c r="F17">
-        <v>9.7335403506801588E-2</v>
+        <v>1.4429900943547439E-17</v>
       </c>
       <c r="G17">
-        <v>1.1114935995888101E-2</v>
+        <v>1.4266964568502689E-12</v>
       </c>
       <c r="H17">
-        <v>7.8056668192152598E-4</v>
+        <v>2.0477768603802379E-8</v>
       </c>
       <c r="I17">
-        <v>3.3695152550709771E-5</v>
+        <v>4.2669230448718113E-5</v>
       </c>
       <c r="J17">
-        <v>4.2832832054792954E-25</v>
+        <v>2.4318543090633389</v>
       </c>
       <c r="K17">
-        <v>1.888646471770602E-28</v>
+        <v>4.244309402366607</v>
       </c>
       <c r="L17">
-        <v>5.1214326266271357E-32</v>
+        <v>1.0753735093598691</v>
       </c>
       <c r="M17">
-        <v>8.5405443793462946E-36</v>
+        <v>3.9554367741612147E-2</v>
       </c>
       <c r="N17">
-        <v>4.9155146459493488E-76</v>
+        <v>4.5277464510239508E-10</v>
       </c>
       <c r="O17">
-        <v>8.3691359836299244E-82</v>
+        <v>1.39493133824558E-14</v>
       </c>
       <c r="P17">
-        <v>8.7631282016465356E-88</v>
+        <v>6.2388763617562783E-20</v>
       </c>
       <c r="Q17">
-        <v>5.6429223437082593E-94</v>
+        <v>4.050818108644948E-26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1257,52 +1257,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.9560886642585338E-7</v>
+        <v>1.8534431964842301E-71</v>
       </c>
       <c r="C18">
-        <v>1.6481699233074481E-5</v>
+        <v>6.1271225604000462E-61</v>
       </c>
       <c r="D18">
-        <v>4.2228423045969677E-4</v>
+        <v>2.9404694408984349E-51</v>
       </c>
       <c r="E18">
-        <v>6.6219898899912491E-3</v>
+        <v>2.0463859037985479E-42</v>
       </c>
       <c r="F18">
-        <v>0.33551125878679189</v>
+        <v>6.6680655523158057E-23</v>
       </c>
       <c r="G18">
-        <v>5.397352904953906E-2</v>
+        <v>3.8911538050510682E-17</v>
       </c>
       <c r="H18">
-        <v>5.3397563761561889E-3</v>
+        <v>3.2963988191671029E-12</v>
       </c>
       <c r="I18">
-        <v>3.2472553759066382E-4</v>
+        <v>4.0539858912412878E-8</v>
       </c>
       <c r="J18">
-        <v>7.4205214984158748E-23</v>
+        <v>0.26502740443746609</v>
       </c>
       <c r="K18">
-        <v>4.6094158746618279E-26</v>
+        <v>2.730049803534933</v>
       </c>
       <c r="L18">
-        <v>1.760857735771517E-29</v>
+        <v>4.0825656015043039</v>
       </c>
       <c r="M18">
-        <v>4.1367182637216388E-33</v>
+        <v>0.88629559118363666</v>
       </c>
       <c r="N18">
-        <v>4.2800417378745939E-72</v>
+        <v>1.1637295130662261E-6</v>
       </c>
       <c r="O18">
-        <v>1.026590446543254E-77</v>
+        <v>2.1160848834090239E-10</v>
       </c>
       <c r="P18">
-        <v>1.514304955374925E-83</v>
+        <v>5.5859486193908063E-15</v>
       </c>
       <c r="Q18">
-        <v>1.3737124557714679E-89</v>
+        <v>2.1406398414533421E-20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1310,52 +1310,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.1308767855996221E-8</v>
+        <v>7.0928780595564311E-82</v>
       </c>
       <c r="C19">
-        <v>1.250638777841229E-6</v>
+        <v>1.383917128510347E-70</v>
       </c>
       <c r="D19">
-        <v>4.5141122449616229E-5</v>
+        <v>3.9199496723839179E-60</v>
       </c>
       <c r="E19">
-        <v>9.9722598767334699E-4</v>
+        <v>1.610132663954155E-50</v>
       </c>
       <c r="F19">
-        <v>0.90828217752869445</v>
+        <v>6.0181054481019502E-29</v>
       </c>
       <c r="G19">
-        <v>0.2058410997658866</v>
+        <v>2.0727581613712311E-22</v>
       </c>
       <c r="H19">
-        <v>2.8688662773847708E-2</v>
+        <v>1.036383023077452E-16</v>
       </c>
       <c r="I19">
-        <v>2.4577793512317188E-3</v>
+        <v>7.5226884702457185E-12</v>
       </c>
       <c r="J19">
-        <v>1.009646848820765E-20</v>
+        <v>5.6411472368915836E-3</v>
       </c>
       <c r="K19">
-        <v>8.8352439217404526E-24</v>
+        <v>0.34297109945021748</v>
       </c>
       <c r="L19">
-        <v>4.7548246400179239E-27</v>
+        <v>3.02712553657011</v>
       </c>
       <c r="M19">
-        <v>1.573634118015139E-30</v>
+        <v>3.878699664646923</v>
       </c>
       <c r="N19">
-        <v>2.926876806164821E-68</v>
+        <v>5.8417829900608896E-4</v>
       </c>
       <c r="O19">
-        <v>9.8898849992576453E-74</v>
+        <v>6.2695556264192015E-7</v>
       </c>
       <c r="P19">
-        <v>2.0551567461011809E-79</v>
+        <v>9.7681184170242266E-11</v>
       </c>
       <c r="Q19">
-        <v>2.6264251460996392E-85</v>
+        <v>2.2093671241932781E-15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1363,52 +1363,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.0142186657587203E-10</v>
+        <v>5.3013823546738444E-93</v>
       </c>
       <c r="C20">
-        <v>7.4531390808641847E-8</v>
+        <v>6.1050190460911109E-81</v>
       </c>
       <c r="D20">
-        <v>3.789808565979493E-6</v>
+        <v>1.0206285995885679E-69</v>
       </c>
       <c r="E20">
-        <v>1.179440648252839E-4</v>
+        <v>2.4743390367395472E-59</v>
       </c>
       <c r="F20">
-        <v>1.9311318014041781</v>
+        <v>1.060823537345014E-35</v>
       </c>
       <c r="G20">
-        <v>0.61653935122254433</v>
+        <v>2.1564643944669059E-28</v>
       </c>
       <c r="H20">
-        <v>0.1210532900159323</v>
+        <v>6.3639132689008308E-22</v>
       </c>
       <c r="I20">
-        <v>1.4609883983460961E-2</v>
+        <v>2.726386000603509E-16</v>
       </c>
       <c r="J20">
-        <v>1.0789019794620621E-18</v>
+        <v>2.345133166010901E-5</v>
       </c>
       <c r="K20">
-        <v>1.3300520102406339E-21</v>
+        <v>8.4152670633197944E-3</v>
       </c>
       <c r="L20">
-        <v>1.008375229571271E-24</v>
+        <v>0.43838038442554472</v>
       </c>
       <c r="M20">
-        <v>4.7014195770989759E-28</v>
+        <v>3.3152565208761309</v>
       </c>
       <c r="N20">
-        <v>1.5719484916793321E-64</v>
+        <v>5.727461951424738E-2</v>
       </c>
       <c r="O20">
-        <v>7.4827751283097192E-70</v>
+        <v>3.6279714176714641E-4</v>
       </c>
       <c r="P20">
-        <v>2.1905541214396081E-75</v>
+        <v>3.336171105774907E-7</v>
       </c>
       <c r="Q20">
-        <v>3.9437706327794381E-81</v>
+        <v>4.4536449551168079E-11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1416,52 +1416,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.9948513363752162E-11</v>
+        <v>7.738899103789231E-105</v>
       </c>
       <c r="C21">
-        <v>3.4883816224132011E-9</v>
+        <v>5.2600198543844422E-92</v>
       </c>
       <c r="D21">
-        <v>2.4988467454967067E-7</v>
+        <v>5.1901319356973614E-80</v>
       </c>
       <c r="E21">
-        <v>1.095559638446024E-5</v>
+        <v>7.4264314224965582E-69</v>
       </c>
       <c r="F21">
-        <v>3.2246342932296148</v>
+        <v>3.6521610712188042E-43</v>
       </c>
       <c r="G21">
-        <v>1.4503303587575811</v>
+        <v>4.3818688161768109E-35</v>
       </c>
       <c r="H21">
-        <v>0.40116249000774079</v>
+        <v>7.6322332741488507E-28</v>
       </c>
       <c r="I21">
-        <v>6.8206862489247483E-2</v>
+        <v>1.929856560613653E-21</v>
       </c>
       <c r="J21">
-        <v>9.0546551539666031E-17</v>
+        <v>1.904105484286515E-8</v>
       </c>
       <c r="K21">
-        <v>1.57251983864247E-19</v>
+        <v>4.0327537362437678E-5</v>
       </c>
       <c r="L21">
-        <v>1.679528053260761E-22</v>
+        <v>1.239924428008205E-2</v>
       </c>
       <c r="M21">
-        <v>1.103142684045274E-25</v>
+        <v>0.55344127468398452</v>
       </c>
       <c r="N21">
-        <v>6.6305508307807497E-61</v>
+        <v>1.0967368285755199</v>
       </c>
       <c r="O21">
-        <v>4.4464311886339061E-66</v>
+        <v>4.1002881250404133E-2</v>
       </c>
       <c r="P21">
-        <v>1.8337513794917509E-71</v>
+        <v>2.2254054081800569E-4</v>
       </c>
       <c r="Q21">
-        <v>4.650886047262327E-77</v>
+        <v>1.7534230787850089E-7</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -1469,52 +1469,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.8144762989269437E-13</v>
+        <v>2.206442745663551E-117</v>
       </c>
       <c r="C22">
-        <v>1.282289787410161E-10</v>
+        <v>8.8513836571706898E-104</v>
       </c>
       <c r="D22">
-        <v>1.294015264533065E-8</v>
+        <v>5.1548078808923192E-91</v>
       </c>
       <c r="E22">
-        <v>7.9923296064740796E-7</v>
+        <v>4.3533598224527811E-79</v>
       </c>
       <c r="F22">
-        <v>4.2288905982802198</v>
+        <v>2.4557271989422829E-51</v>
       </c>
       <c r="G22">
-        <v>2.6794799018922011</v>
+        <v>1.739001164841873E-42</v>
       </c>
       <c r="H22">
-        <v>1.044098492101452</v>
+        <v>1.7877321115820801E-34</v>
       </c>
       <c r="I22">
-        <v>0.25008451816946431</v>
+        <v>2.668001932680507E-27</v>
       </c>
       <c r="J22">
-        <v>5.9681436676337077E-15</v>
+        <v>3.0195200709850399E-12</v>
       </c>
       <c r="K22">
-        <v>1.4601620996795531E-17</v>
+        <v>3.7744955961309597E-8</v>
       </c>
       <c r="L22">
-        <v>2.1969986243390209E-20</v>
+        <v>6.8495610503931955E-5</v>
       </c>
       <c r="M22">
-        <v>2.0328802475218539E-23</v>
+        <v>1.8044687843506921E-2</v>
       </c>
       <c r="N22">
-        <v>2.1965360503056029E-57</v>
+        <v>4.1017205033657147</v>
       </c>
       <c r="O22">
-        <v>2.0750945350004348E-62</v>
+        <v>0.90508280810366304</v>
       </c>
       <c r="P22">
-        <v>1.205603079721728E-67</v>
+        <v>2.8993015202023849E-2</v>
       </c>
       <c r="Q22">
-        <v>4.3076179524047102E-73</v>
+        <v>1.348283645289275E-4</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -1522,52 +1522,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.6014077165220042E-14</v>
+        <v>1.2286538961852969E-130</v>
       </c>
       <c r="C23">
-        <v>3.7019095748766981E-12</v>
+        <v>2.9090981149779302E-116</v>
       </c>
       <c r="D23">
-        <v>5.2627968543928327E-10</v>
+        <v>9.9993090482684725E-103</v>
       </c>
       <c r="E23">
-        <v>4.5791848718008377E-8</v>
+        <v>4.984164599355382E-90</v>
       </c>
       <c r="F23">
-        <v>4.3556187739131653</v>
+        <v>3.225029855455952E-60</v>
       </c>
       <c r="G23">
-        <v>3.887867889562906</v>
+        <v>1.347919002520699E-50</v>
       </c>
       <c r="H23">
-        <v>2.1342242391319748</v>
+        <v>8.1785566835653992E-42</v>
       </c>
       <c r="I23">
-        <v>0.72015000937324136</v>
+        <v>7.2039496818297822E-34</v>
       </c>
       <c r="J23">
-        <v>3.0894704991922329E-13</v>
+        <v>9.3520809904312384E-17</v>
       </c>
       <c r="K23">
-        <v>1.0648377505061801E-15</v>
+        <v>6.8998486648360909E-12</v>
       </c>
       <c r="L23">
-        <v>2.2570944710453559E-18</v>
+        <v>7.390157381225557E-8</v>
       </c>
       <c r="M23">
-        <v>2.9421806319259791E-21</v>
+        <v>1.1490809475421341E-4</v>
       </c>
       <c r="N23">
-        <v>5.7148454679440359E-54</v>
+        <v>2.9960780409639218</v>
       </c>
       <c r="O23">
-        <v>7.6057426565401192E-59</v>
+        <v>3.9019857359594972</v>
       </c>
       <c r="P23">
-        <v>6.2250905508485926E-64</v>
+        <v>0.73773612294370361</v>
       </c>
       <c r="Q23">
-        <v>3.1334017878345308E-69</v>
+        <v>2.0248797455870611E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1575,52 +1575,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.5773973915216811E-16</v>
+        <v>1.336256662110617E-144</v>
       </c>
       <c r="C24">
-        <v>8.3934954285282907E-14</v>
+        <v>1.8673640521601711E-129</v>
       </c>
       <c r="D24">
-        <v>1.681013660581526E-11</v>
+        <v>3.788357191697151E-115</v>
       </c>
       <c r="E24">
-        <v>2.0605369073785841E-9</v>
+        <v>1.1145090754857099E-101</v>
       </c>
       <c r="F24">
-        <v>3.5233087413583899</v>
+        <v>8.2720048454139055E-70</v>
       </c>
       <c r="G24">
-        <v>4.4304712590239763</v>
+        <v>2.0405683229400171E-59</v>
       </c>
       <c r="H24">
-        <v>3.42622639711032</v>
+        <v>7.307592419081404E-50</v>
       </c>
       <c r="I24">
-        <v>1.628683001314589</v>
+        <v>3.7990816121198291E-41</v>
       </c>
       <c r="J24">
-        <v>1.2560480837083211E-11</v>
+        <v>5.6572063392579071E-22</v>
       </c>
       <c r="K24">
-        <v>6.098783774858604E-14</v>
+        <v>2.4634493053425849E-16</v>
       </c>
       <c r="L24">
-        <v>1.821155870412031E-16</v>
+        <v>1.5572848379886328E-11</v>
       </c>
       <c r="M24">
-        <v>3.3442928293268719E-19</v>
+        <v>1.4291417143550931E-7</v>
       </c>
       <c r="N24">
-        <v>1.1677451616022491E-50</v>
+        <v>0.42742862253566899</v>
       </c>
       <c r="O24">
-        <v>2.1893883165341399E-55</v>
+        <v>3.285537745908635</v>
       </c>
       <c r="P24">
-        <v>2.5244363597356959E-60</v>
+        <v>3.6663349298939711</v>
       </c>
       <c r="Q24">
-        <v>1.790079935697499E-65</v>
+        <v>0.59393733724879449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -1628,52 +1628,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.2579039908826409E-18</v>
+        <v>2.8384001845774102E-159</v>
       </c>
       <c r="C25">
-        <v>1.494642542264137E-15</v>
+        <v>2.34111658163295E-143</v>
       </c>
       <c r="D25">
-        <v>4.2169971568175148E-13</v>
+        <v>2.8032076600804452E-128</v>
       </c>
       <c r="E25">
-        <v>7.2819894860535977E-11</v>
+        <v>4.8674137434661253E-114</v>
       </c>
       <c r="F25">
-        <v>2.238355023894365</v>
+        <v>4.1439188540797543E-80</v>
       </c>
       <c r="G25">
-        <v>3.9652062066999898</v>
+        <v>6.0333970529206224E-69</v>
       </c>
       <c r="H25">
-        <v>4.3198582342469107</v>
+        <v>1.275250160322072E-58</v>
       </c>
       <c r="I25">
-        <v>2.8928611281293928</v>
+        <v>3.9130013465115287E-49</v>
       </c>
       <c r="J25">
-        <v>4.0105682116197412E-10</v>
+        <v>6.6837346721039441E-28</v>
       </c>
       <c r="K25">
-        <v>2.7433452209791571E-12</v>
+        <v>1.7177941333101069E-21</v>
       </c>
       <c r="L25">
-        <v>1.154042833766436E-14</v>
+        <v>6.4092298235797597E-16</v>
       </c>
       <c r="M25">
-        <v>2.985497365644059E-17</v>
+        <v>3.471549717456363E-11</v>
       </c>
       <c r="N25">
-        <v>1.8739978613038919E-47</v>
+        <v>1.190960896589765E-2</v>
       </c>
       <c r="O25">
-        <v>4.9497286929211044E-52</v>
+        <v>0.54031953070462535</v>
       </c>
       <c r="P25">
-        <v>8.0400844346421883E-57</v>
+        <v>3.5586612185479929</v>
       </c>
       <c r="Q25">
-        <v>8.0316762083223644E-62</v>
+        <v>3.4025572453660331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -1681,52 +1681,52 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.2342427101687869E-20</v>
+        <v>1.177553888662732E-174</v>
       </c>
       <c r="C26">
-        <v>2.0903030295463521E-17</v>
+        <v>5.7324530902456979E-158</v>
       </c>
       <c r="D26">
-        <v>8.3083121113845289E-15</v>
+        <v>4.051194027027565E-142</v>
       </c>
       <c r="E26">
-        <v>2.021143394204258E-12</v>
+        <v>4.1517991954325589E-127</v>
       </c>
       <c r="F26">
-        <v>1.1168238234842991</v>
+        <v>4.0544796642385122E-91</v>
       </c>
       <c r="G26">
-        <v>2.787141771802975</v>
+        <v>3.48414398890821E-79</v>
       </c>
       <c r="H26">
-        <v>4.2776018794223516</v>
+        <v>4.3465019486635989E-68</v>
       </c>
       <c r="I26">
-        <v>4.0354877866879226</v>
+        <v>7.8716321917645583E-58</v>
       </c>
       <c r="J26">
-        <v>1.0057336437809719E-8</v>
+        <v>1.542267846993802E-34</v>
       </c>
       <c r="K26">
-        <v>9.6915918896028841E-11</v>
+        <v>2.339494467751488E-27</v>
       </c>
       <c r="L26">
-        <v>5.7434675033205709E-13</v>
+        <v>5.1518956290858713E-21</v>
       </c>
       <c r="M26">
-        <v>2.0931797094624539E-15</v>
+        <v>1.647004950533936E-15</v>
       </c>
       <c r="N26">
-        <v>2.3619327854436698E-44</v>
+        <v>6.4811910732762371E-5</v>
       </c>
       <c r="O26">
-        <v>8.7885539423349062E-49</v>
+        <v>1.73547472406687E-2</v>
       </c>
       <c r="P26">
-        <v>2.011102573332655E-53</v>
+        <v>0.6746283322561395</v>
       </c>
       <c r="Q26">
-        <v>2.8302017046314989E-58</v>
+        <v>3.8070946596267881</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -1734,52 +1734,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.5216474233622522E-22</v>
+        <v>9.5413840548717333E-191</v>
       </c>
       <c r="C27">
-        <v>2.2959297192737701E-19</v>
+        <v>2.741456755933531E-173</v>
       </c>
       <c r="D27">
-        <v>1.2855818338599551E-16</v>
+        <v>1.14349491524648E-156</v>
       </c>
       <c r="E27">
-        <v>4.4057681066564321E-14</v>
+        <v>6.9166824670159578E-141</v>
       </c>
       <c r="F27">
-        <v>0.43764079418232182</v>
+        <v>7.7478719086482836E-103</v>
       </c>
       <c r="G27">
-        <v>1.5386143282389459</v>
+        <v>3.9296484917448372E-90</v>
       </c>
       <c r="H27">
-        <v>3.3266618544820221</v>
+        <v>2.8933954367014451E-78</v>
       </c>
       <c r="I27">
-        <v>4.4212178824104589</v>
+        <v>3.0927371461843012E-67</v>
       </c>
       <c r="J27">
-        <v>1.9807856396605581E-7</v>
+        <v>6.9506245446347655E-42</v>
       </c>
       <c r="K27">
-        <v>2.6889777117041648E-9</v>
+        <v>6.2229505733338618E-34</v>
       </c>
       <c r="L27">
-        <v>2.2449353417893732E-11</v>
+        <v>8.0881964138220544E-27</v>
       </c>
       <c r="M27">
-        <v>1.1525871391792029E-13</v>
+        <v>1.526124067705096E-20</v>
       </c>
       <c r="N27">
-        <v>2.3379940813825998E-41</v>
+        <v>6.8886730007578801E-8</v>
       </c>
       <c r="O27">
-        <v>1.225549563977803E-45</v>
+        <v>1.088702803589312E-4</v>
       </c>
       <c r="P27">
-        <v>3.950801982806672E-50</v>
+        <v>2.4978475491197159E-2</v>
       </c>
       <c r="Q27">
-        <v>7.8326011812008237E-55</v>
+        <v>0.83196552726651418</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -1787,52 +1787,52 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.5440933343680469E-24</v>
+        <v>1.509959799813503E-207</v>
       </c>
       <c r="C28">
-        <v>1.980547938023059E-21</v>
+        <v>2.5606234090678342E-189</v>
       </c>
       <c r="D28">
-        <v>1.5622987314968129E-18</v>
+        <v>6.3038932980149805E-172</v>
       </c>
       <c r="E28">
-        <v>7.5426433393996999E-16</v>
+        <v>2.250519384890747E-155</v>
       </c>
       <c r="F28">
-        <v>0.13468782961435999</v>
+        <v>2.891699497034018E-115</v>
       </c>
       <c r="G28">
-        <v>0.66707999048499433</v>
+        <v>8.6563485596105055E-102</v>
       </c>
       <c r="H28">
-        <v>2.0318628225302091</v>
+        <v>3.7618296690355848E-89</v>
       </c>
       <c r="I28">
-        <v>3.804216525798974</v>
+        <v>2.3732563397211261E-77</v>
       </c>
       <c r="J28">
-        <v>3.063863468714048E-6</v>
+        <v>6.1180254094044839E-50</v>
       </c>
       <c r="K28">
-        <v>5.8594481608696047E-8</v>
+        <v>3.232913629882001E-41</v>
       </c>
       <c r="L28">
-        <v>6.8914551673617654E-10</v>
+        <v>2.4800460428048549E-33</v>
       </c>
       <c r="M28">
-        <v>4.9844638623267183E-12</v>
+        <v>2.7619015893126049E-26</v>
       </c>
       <c r="N28">
-        <v>1.817593284847061E-38</v>
+        <v>1.4300121775949789E-11</v>
       </c>
       <c r="O28">
-        <v>1.342214005277782E-42</v>
+        <v>1.3339016549761851E-7</v>
       </c>
       <c r="P28">
-        <v>6.0955617285399918E-47</v>
+        <v>1.806303413347336E-4</v>
       </c>
       <c r="Q28">
-        <v>1.7024409949954001E-51</v>
+        <v>3.5509160873195757E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -1840,52 +1840,52 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.4257472345283983E-27</v>
+        <v>4.6670538784873639E-225</v>
       </c>
       <c r="C29">
-        <v>1.3418054667406839E-23</v>
+        <v>4.6712535931865782E-206</v>
       </c>
       <c r="D29">
-        <v>1.4910968838182581E-20</v>
+        <v>6.7874538687581665E-188</v>
       </c>
       <c r="E29">
-        <v>1.0141517371342131E-17</v>
+        <v>1.4301813137856181E-170</v>
       </c>
       <c r="F29">
-        <v>3.2554898160027518E-2</v>
+        <v>2.1078869173718259E-128</v>
       </c>
       <c r="G29">
-        <v>0.2271451585583279</v>
+        <v>3.7242531044045158E-114</v>
       </c>
       <c r="H29">
-        <v>0.97466986552761792</v>
+        <v>9.552430446199267E-101</v>
       </c>
       <c r="I29">
-        <v>2.570786241700366</v>
+        <v>3.5568840702502098E-88</v>
       </c>
       <c r="J29">
-        <v>3.7220205560782208E-5</v>
+        <v>1.051773307242745E-58</v>
       </c>
       <c r="K29">
-        <v>1.0027753726359449E-6</v>
+        <v>3.280312920196097E-49</v>
       </c>
       <c r="L29">
-        <v>1.661481318714252E-8</v>
+        <v>1.4852214744156041E-40</v>
       </c>
       <c r="M29">
-        <v>1.6929360896541881E-10</v>
+        <v>9.7622512335837326E-33</v>
       </c>
       <c r="N29">
-        <v>1.1097558443987541E-35</v>
+        <v>5.797854650721595E-16</v>
       </c>
       <c r="O29">
-        <v>1.15448975073367E-39</v>
+        <v>3.1919913303770719E-11</v>
       </c>
       <c r="P29">
-        <v>7.3861756857686809E-44</v>
+        <v>2.5511670570319662E-7</v>
       </c>
       <c r="Q29">
-        <v>2.9061334459179552E-48</v>
+        <v>2.9600490596308032E-4</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -1893,52 +1893,52 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.8046857334128341E-29</v>
+        <v>2.8173685724577181E-243</v>
       </c>
       <c r="C30">
-        <v>7.1395556711738574E-26</v>
+        <v>1.6643497688320001E-223</v>
       </c>
       <c r="D30">
-        <v>1.1176995453893871E-22</v>
+        <v>1.427343001432769E-204</v>
       </c>
       <c r="E30">
-        <v>1.070926671471487E-19</v>
+        <v>1.7751001568824519E-186</v>
       </c>
       <c r="F30">
-        <v>6.1799043992773412E-3</v>
+        <v>3.0009922854340872E-142</v>
       </c>
       <c r="G30">
-        <v>6.0744433257814527E-2</v>
+        <v>3.1294431246811591E-127</v>
       </c>
       <c r="H30">
-        <v>0.36719615340869588</v>
+        <v>4.7375309763238551E-113</v>
       </c>
       <c r="I30">
-        <v>1.3644076173945101</v>
+        <v>1.041161721512492E-99</v>
       </c>
       <c r="J30">
-        <v>3.5511216939439292E-4</v>
+        <v>3.5314774282223219E-68</v>
       </c>
       <c r="K30">
-        <v>1.347808006299615E-5</v>
+        <v>6.500696170602023E-58</v>
       </c>
       <c r="L30">
-        <v>3.1459905891151783E-7</v>
+        <v>1.737185188437989E-48</v>
       </c>
       <c r="M30">
-        <v>4.5158562004803208E-9</v>
+        <v>6.7393060909871481E-40</v>
       </c>
       <c r="N30">
-        <v>5.3215188082096277E-33</v>
+        <v>4.5911167102833706E-21</v>
       </c>
       <c r="O30">
-        <v>7.7989444420459479E-37</v>
+        <v>1.491842641539293E-15</v>
       </c>
       <c r="P30">
-        <v>7.0291524502117174E-41</v>
+        <v>7.0373721111609122E-11</v>
       </c>
       <c r="Q30">
-        <v>3.8961571526933102E-45</v>
+        <v>4.8192652501038925E-7</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -1946,52 +1946,52 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8.3196619064592342E-32</v>
+        <v>3.3217576097190507E-262</v>
       </c>
       <c r="C31">
-        <v>2.9835288455778831E-28</v>
+        <v>1.1581883090542271E-241</v>
       </c>
       <c r="D31">
-        <v>6.5799366933794342E-25</v>
+        <v>5.8623700731356829E-222</v>
       </c>
       <c r="E31">
-        <v>8.8816562395041131E-22</v>
+        <v>4.3030663933091708E-203</v>
       </c>
       <c r="F31">
-        <v>9.2134991833188148E-4</v>
+        <v>8.3446066811163606E-157</v>
       </c>
       <c r="G31">
-        <v>1.275812678339684E-2</v>
+        <v>5.1359212873669012E-141</v>
       </c>
       <c r="H31">
-        <v>0.1086465991116672</v>
+        <v>4.5889535605271562E-126</v>
       </c>
       <c r="I31">
-        <v>0.56872161305270474</v>
+        <v>5.9523724353770862E-112</v>
       </c>
       <c r="J31">
-        <v>2.6609074706418229E-3</v>
+        <v>2.3158698376639988E-78</v>
       </c>
       <c r="K31">
-        <v>1.4227540595572631E-4</v>
+        <v>2.516099920816872E-67</v>
       </c>
       <c r="L31">
-        <v>4.6783941187397012E-6</v>
+        <v>3.9684822061929111E-57</v>
       </c>
       <c r="M31">
-        <v>9.4605650059174127E-8</v>
+        <v>9.0866501089138297E-48</v>
       </c>
       <c r="N31">
-        <v>2.0041083212265499E-30</v>
+        <v>7.1005626580262645E-27</v>
       </c>
       <c r="O31">
-        <v>4.1377000117139677E-34</v>
+        <v>1.3617825083812341E-20</v>
       </c>
       <c r="P31">
-        <v>5.2536812617109319E-38</v>
+        <v>3.791451933417277E-15</v>
       </c>
       <c r="Q31">
-        <v>4.1023698196662228E-42</v>
+        <v>1.532449505050996E-10</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -1999,52 +1999,52 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.9382267340918591E-34</v>
+        <v>7.6491932489159459E-282</v>
       </c>
       <c r="C32">
-        <v>9.791894530794153E-31</v>
+        <v>1.574117601613677E-260</v>
       </c>
       <c r="D32">
-        <v>3.0422562037383201E-27</v>
+        <v>4.7026378275545122E-240</v>
       </c>
       <c r="E32">
-        <v>5.7850299858776707E-24</v>
+        <v>2.037307825035986E-220</v>
       </c>
       <c r="F32">
-        <v>1.07880978227493E-4</v>
+        <v>4.5317953049080602E-172</v>
       </c>
       <c r="G32">
-        <v>2.1044798509234301E-3</v>
+        <v>1.6462397236787191E-155</v>
       </c>
       <c r="H32">
-        <v>2.524710458401731E-2</v>
+        <v>8.6815782588108605E-140</v>
       </c>
       <c r="I32">
-        <v>0.18617988592223089</v>
+        <v>6.6463838956344945E-125</v>
       </c>
       <c r="J32">
-        <v>1.5659266649229758E-2</v>
+        <v>2.9661648205122199E-89</v>
       </c>
       <c r="K32">
-        <v>1.179530198680126E-3</v>
+        <v>1.9020385783228569E-77</v>
       </c>
       <c r="L32">
-        <v>5.4640368557438053E-5</v>
+        <v>1.7706233148966651E-66</v>
       </c>
       <c r="M32">
-        <v>1.5565800985101801E-6</v>
+        <v>2.392852069259665E-56</v>
       </c>
       <c r="N32">
-        <v>5.9276726252289159E-28</v>
+        <v>2.1448188453446971E-33</v>
       </c>
       <c r="O32">
-        <v>1.7240886939393429E-31</v>
+        <v>2.4278167769036751E-26</v>
       </c>
       <c r="P32">
-        <v>3.083911513340556E-35</v>
+        <v>3.9895509443542442E-20</v>
       </c>
       <c r="Q32">
-        <v>3.3924275406051118E-39</v>
+        <v>9.517325828163204E-15</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -2052,52 +2052,52 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.5463444084417879E-37</v>
+        <v>3.440224220893514E-302</v>
       </c>
       <c r="C33">
-        <v>2.523949389715549E-33</v>
+        <v>4.1784825731253801E-280</v>
       </c>
       <c r="D33">
-        <v>1.1047074549585899E-29</v>
+        <v>7.3677224462371216E-259</v>
       </c>
       <c r="E33">
-        <v>2.9593388668879181E-26</v>
+        <v>1.883903622316373E-238</v>
       </c>
       <c r="F33">
-        <v>9.9207059932493468E-6</v>
+        <v>4.8068228908024971E-188</v>
       </c>
       <c r="G33">
-        <v>2.7263402773794883E-4</v>
+        <v>1.0306025589304951E-170</v>
       </c>
       <c r="H33">
-        <v>4.6077027141964849E-3</v>
+        <v>3.2077988539292722E-154</v>
       </c>
       <c r="I33">
-        <v>4.7867772242181771E-2</v>
+        <v>1.4494531081710881E-138</v>
       </c>
       <c r="J33">
-        <v>7.2375319723871595E-2</v>
+        <v>7.4199304540482082E-101</v>
       </c>
       <c r="K33">
-        <v>7.6800796546194344E-3</v>
+        <v>2.8082397359253788E-88</v>
       </c>
       <c r="L33">
-        <v>5.0119630941162878E-4</v>
+        <v>1.542948183101273E-76</v>
       </c>
       <c r="M33">
-        <v>2.0114224916164751E-5</v>
+        <v>1.2306974968678451E-65</v>
       </c>
       <c r="N33">
-        <v>1.3769705714064741E-25</v>
+        <v>1.265353560016949E-40</v>
       </c>
       <c r="O33">
-        <v>5.6420591700054685E-29</v>
+        <v>8.4537127447792464E-33</v>
       </c>
       <c r="P33">
-        <v>1.4217313013870879E-32</v>
+        <v>8.1990946024490081E-26</v>
       </c>
       <c r="Q33">
-        <v>2.2032500125917648E-36</v>
+        <v>1.1544287234425541E-19</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -2105,52 +2105,52 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.0960616189900948E-40</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>5.1094245053064382E-36</v>
+        <v>2.1663241285827139E-300</v>
       </c>
       <c r="D34">
-        <v>3.1504762748098438E-32</v>
+        <v>2.2544904634274681E-278</v>
       </c>
       <c r="E34">
-        <v>1.1889434835766679E-28</v>
+        <v>3.4023902934976948E-257</v>
       </c>
       <c r="F34">
-        <v>7.1650250293118526E-7</v>
+        <v>9.9579370810596255E-205</v>
       </c>
       <c r="G34">
-        <v>2.7739126205690799E-5</v>
+        <v>1.260122533190219E-186</v>
       </c>
       <c r="H34">
-        <v>6.6044210362689604E-4</v>
+        <v>2.314936022219456E-169</v>
       </c>
       <c r="I34">
-        <v>9.6656508083665278E-3</v>
+        <v>6.1737116138080872E-153</v>
       </c>
       <c r="J34">
-        <v>0.26271628869489139</v>
+        <v>3.6251652753731231E-113</v>
       </c>
       <c r="K34">
-        <v>3.9273518716980378E-2</v>
+        <v>8.0979009575043047E-100</v>
       </c>
       <c r="L34">
-        <v>3.610601331187208E-3</v>
+        <v>2.626031467252911E-87</v>
       </c>
       <c r="M34">
-        <v>2.0413269059171301E-4</v>
+        <v>1.2362611047677549E-75</v>
       </c>
       <c r="N34">
-        <v>2.5121324655450661E-23</v>
+        <v>1.4579968555092091E-48</v>
       </c>
       <c r="O34">
-        <v>1.4500837915157279E-26</v>
+        <v>5.7491347314037898E-40</v>
       </c>
       <c r="P34">
-        <v>5.1476684968033787E-30</v>
+        <v>3.2910251509071188E-32</v>
       </c>
       <c r="Q34">
-        <v>1.1238139313594431E-33</v>
+        <v>2.734908063977924E-25</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -2158,52 +2158,52 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.7512978563046348E-43</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>8.1234546482712968E-39</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>7.0563899266528047E-35</v>
+        <v>1.347370299527365E-298</v>
       </c>
       <c r="E35">
-        <v>3.7515017471238331E-31</v>
+        <v>1.2001430153392779E-276</v>
       </c>
       <c r="F35">
-        <v>4.0641551015646763E-8</v>
+        <v>4.0290629858149087E-222</v>
       </c>
       <c r="G35">
-        <v>2.2165775107133102E-6</v>
+        <v>3.0092464741561408E-203</v>
       </c>
       <c r="H35">
-        <v>7.4346834548437744E-5</v>
+        <v>3.2628287444644077E-185</v>
       </c>
       <c r="I35">
-        <v>1.5328385561718849E-3</v>
+        <v>5.1358452515513173E-168</v>
       </c>
       <c r="J35">
-        <v>0.74896398523079333</v>
+        <v>3.4592281752676603E-126</v>
       </c>
       <c r="K35">
-        <v>0.1577289209508399</v>
+        <v>4.5607279065222471E-112</v>
       </c>
       <c r="L35">
-        <v>2.042813130688562E-2</v>
+        <v>8.7291495094690875E-99</v>
       </c>
       <c r="M35">
-        <v>1.6270438097511419E-3</v>
+        <v>2.4254510586554509E-86</v>
       </c>
       <c r="N35">
-        <v>3.5994640712533417E-21</v>
+        <v>3.2811395747993219E-57</v>
       </c>
       <c r="O35">
-        <v>2.927022017028188E-24</v>
+        <v>7.6362635384766036E-48</v>
       </c>
       <c r="P35">
-        <v>1.463797652617963E-27</v>
+        <v>2.5800013122485101E-39</v>
       </c>
       <c r="Q35">
-        <v>4.501968697644908E-31</v>
+        <v>1.265440591676008E-31</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -2211,52 +2211,52 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.0977024068929153E-46</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1.014347967004393E-41</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1.241270283798993E-37</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>9.2966509298821152E-34</v>
+        <v>8.2680918928589136E-297</v>
       </c>
       <c r="F36">
-        <v>1.810507235638912E-9</v>
+        <v>3.1839200747153558E-240</v>
       </c>
       <c r="G36">
-        <v>1.3910748470791571E-7</v>
+        <v>1.4035444291640729E-220</v>
       </c>
       <c r="H36">
-        <v>6.573060686198584E-6</v>
+        <v>8.9819987026294083E-202</v>
       </c>
       <c r="I36">
-        <v>1.9091460782259961E-4</v>
+        <v>8.3445119662840006E-184</v>
       </c>
       <c r="J36">
-        <v>1.6769198215907319</v>
+        <v>6.446945954879752E-140</v>
       </c>
       <c r="K36">
-        <v>0.49750824215497902</v>
+        <v>5.0167133525816715E-125</v>
       </c>
       <c r="L36">
-        <v>9.0772683110610902E-2</v>
+        <v>5.6671846052007828E-111</v>
       </c>
       <c r="M36">
-        <v>1.018505463895638E-2</v>
+        <v>9.2939053968192753E-98</v>
       </c>
       <c r="N36">
-        <v>4.0505181163427118E-19</v>
+        <v>1.442169293440814E-66</v>
       </c>
       <c r="O36">
-        <v>4.6401958299780565E-22</v>
+        <v>1.980992135397175E-56</v>
       </c>
       <c r="P36">
-        <v>3.2691056097575839E-25</v>
+        <v>3.950318149015069E-47</v>
       </c>
       <c r="Q36">
-        <v>1.416406658604912E-28</v>
+        <v>1.143573840951147E-38</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -2264,52 +2264,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.5486284215425476E-49</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>9.9474232093806512E-45</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1.714855674203362E-40</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1.8093614163963262E-36</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>6.334432098831622E-11</v>
+        <v>4.9140964852838877E-259</v>
       </c>
       <c r="G37">
-        <v>6.8563898369906374E-9</v>
+        <v>1.278550807457539E-238</v>
       </c>
       <c r="H37">
-        <v>4.5640482892829229E-7</v>
+        <v>4.8291991775479057E-219</v>
       </c>
       <c r="I37">
-        <v>1.8674945055892871E-5</v>
+        <v>2.6479719220409282E-200</v>
       </c>
       <c r="J37">
-        <v>2.9487713003332932</v>
+        <v>2.346671349525096E-154</v>
       </c>
       <c r="K37">
-        <v>1.2324424738893669</v>
+        <v>1.077774321982165E-138</v>
       </c>
       <c r="L37">
-        <v>0.31678100626743338</v>
+        <v>7.1859833926641211E-124</v>
       </c>
       <c r="M37">
-        <v>5.0073149519581937E-2</v>
+        <v>6.955484718896445E-110</v>
       </c>
       <c r="N37">
-        <v>3.5798163247314512E-17</v>
+        <v>1.238030104587753E-76</v>
       </c>
       <c r="O37">
-        <v>5.7772885469035889E-20</v>
+        <v>1.00370945742391E-65</v>
       </c>
       <c r="P37">
-        <v>5.7339550567714903E-23</v>
+        <v>1.181320234421042E-55</v>
       </c>
       <c r="Q37">
-        <v>3.4998616558329809E-26</v>
+        <v>2.0184132346579699E-46</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -2317,52 +2317,52 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.9400994997296058E-52</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>7.6614620832144581E-48</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1.8606565683203691E-43</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>2.7656776165144001E-39</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.740574171524334E-12</v>
+        <v>1.481319101678252E-278</v>
       </c>
       <c r="G38">
-        <v>2.654103998776319E-10</v>
+        <v>2.2747477207763542E-257</v>
       </c>
       <c r="H38">
-        <v>2.4889160529399238E-8</v>
+        <v>5.0710824255669547E-237</v>
       </c>
       <c r="I38">
-        <v>1.4346862465953491E-6</v>
+        <v>1.641153605856009E-217</v>
       </c>
       <c r="J38">
-        <v>4.0723707837634091</v>
+        <v>1.66829917212084E-169</v>
       </c>
       <c r="K38">
-        <v>2.3977862384920359</v>
+        <v>4.5223044805056649E-153</v>
       </c>
       <c r="L38">
-        <v>0.86824146847341122</v>
+        <v>1.7796249271026759E-137</v>
       </c>
       <c r="M38">
-        <v>0.19334096567348541</v>
+        <v>1.016669923395982E-122</v>
       </c>
       <c r="N38">
-        <v>2.4847822651663318E-15</v>
+        <v>2.0757239102102549E-87</v>
       </c>
       <c r="O38">
-        <v>5.6492297516985097E-18</v>
+        <v>9.9324572126170742E-76</v>
       </c>
       <c r="P38">
-        <v>7.8987259774943159E-21</v>
+        <v>6.8996432107571729E-65</v>
       </c>
       <c r="Q38">
-        <v>6.7918990915511587E-24</v>
+        <v>6.957919175594678E-55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2370,52 +2370,52 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>8.3303818669368357E-56</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>4.6343640565991661E-51</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1.585558591445642E-46</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>3.3201309557927172E-42</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>3.7562528038698997E-14</v>
+        <v>8.7212149091075359E-299</v>
       </c>
       <c r="G39">
-        <v>8.068964399807473E-12</v>
+        <v>7.9044545732600972E-277</v>
       </c>
       <c r="H39">
-        <v>1.065976660898603E-9</v>
+        <v>1.040039042876216E-255</v>
       </c>
       <c r="I39">
-        <v>8.6562933678132673E-8</v>
+        <v>1.986591205400174E-235</v>
       </c>
       <c r="J39">
-        <v>4.4170362586045826</v>
+        <v>2.3164291375825041E-185</v>
       </c>
       <c r="K39">
-        <v>3.663799498293248</v>
+        <v>3.7060833997748442E-168</v>
       </c>
       <c r="L39">
-        <v>1.868957149791358</v>
+        <v>8.6078397446774205E-152</v>
       </c>
       <c r="M39">
-        <v>0.58630053084315781</v>
+        <v>2.9023913594698319E-136</v>
       </c>
       <c r="N39">
-        <v>1.3545447656955371E-13</v>
+        <v>6.7972210276834597E-99</v>
       </c>
       <c r="O39">
-        <v>4.338422518428912E-16</v>
+        <v>1.919679871016904E-86</v>
       </c>
       <c r="P39">
-        <v>8.5454953018904217E-19</v>
+        <v>7.8706218257092817E-75</v>
       </c>
       <c r="Q39">
-        <v>1.0351636216005779E-21</v>
+        <v>4.6845954869437908E-64</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -2423,52 +2423,52 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.8092037897883052E-59</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2.2016387833776359E-54</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1.061147607663749E-49</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3.1303024577856787E-45</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>6.3664087922399138E-16</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1.926615685026075E-13</v>
+        <v>5.3645586647641807E-297</v>
       </c>
       <c r="H40">
-        <v>3.5856060553899202E-11</v>
+        <v>4.1660265933130369E-275</v>
       </c>
       <c r="I40">
-        <v>4.1018939438850096E-9</v>
+        <v>4.6966825533046387E-254</v>
       </c>
       <c r="J40">
-        <v>3.7626346000643212</v>
+        <v>6.2818494746657864E-202</v>
       </c>
       <c r="K40">
-        <v>4.3967357388306434</v>
+        <v>5.9319024256346395E-184</v>
       </c>
       <c r="L40">
-        <v>3.159625376937202</v>
+        <v>8.1317363125584444E-167</v>
       </c>
       <c r="M40">
-        <v>1.396349457466896</v>
+        <v>1.6182864239128999E-150</v>
       </c>
       <c r="N40">
-        <v>5.7993032022506481E-12</v>
+        <v>4.3472700403174988E-111</v>
       </c>
       <c r="O40">
-        <v>2.616687638895031E-14</v>
+        <v>7.2464339983802406E-98</v>
       </c>
       <c r="P40">
-        <v>7.2609736579469997E-17</v>
+        <v>1.753536779238552E-85</v>
       </c>
       <c r="Q40">
-        <v>1.239093865859932E-19</v>
+        <v>6.1601066816152123E-74</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2476,52 +2476,52 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7.4401040716442279E-63</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>8.214467507474413E-58</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>5.5775918727250136E-53</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2.3179006632850181E-48</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>8.4744526774063111E-18</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3.6128490223926882E-15</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>9.4722876579504336E-13</v>
+        <v>3.2592513529532579E-295</v>
       </c>
       <c r="I41">
-        <v>1.5265615424582759E-10</v>
+        <v>2.1686892560702348E-273</v>
       </c>
       <c r="J41">
-        <v>2.5172743732696121</v>
+        <v>3.3272041864048773E-219</v>
       </c>
       <c r="K41">
-        <v>4.1438731979073236</v>
+        <v>1.8543693086928181E-200</v>
       </c>
       <c r="L41">
-        <v>4.1951671709892784</v>
+        <v>1.500361195811676E-182</v>
       </c>
       <c r="M41">
-        <v>2.6118328693552968</v>
+        <v>1.7622934648435971E-165</v>
       </c>
       <c r="N41">
-        <v>1.950004877060473E-10</v>
+        <v>5.4303180388729297E-124</v>
       </c>
       <c r="O41">
-        <v>1.2395080431980251E-12</v>
+        <v>5.3424847659620996E-110</v>
       </c>
       <c r="P41">
-        <v>4.8454030892263022E-15</v>
+        <v>7.6303442991061171E-97</v>
       </c>
       <c r="Q41">
-        <v>1.164868340534597E-17</v>
+        <v>1.5820776407965639E-84</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -2529,52 +2529,52 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.547576778721092E-66</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2.4070781708739571E-61</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>2.3024759107057701E-56</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1.3479716753167109E-51</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>8.8594390644732872E-20</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>5.3208616151314421E-17</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1.965280809537043E-14</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>4.4619185331733353E-12</v>
+        <v>1.9558109356691041E-293</v>
       </c>
       <c r="J42">
-        <v>1.3226547427245889</v>
+        <v>3.44187269994653E-237</v>
       </c>
       <c r="K42">
-        <v>3.0673263170555178</v>
+        <v>1.132196699407645E-217</v>
       </c>
       <c r="L42">
-        <v>4.3746204512237341</v>
+        <v>5.4066938793910296E-199</v>
       </c>
       <c r="M42">
-        <v>3.8368434075703912</v>
+        <v>3.7482149825806348E-181</v>
       </c>
       <c r="N42">
-        <v>5.1495942239470213E-9</v>
+        <v>1.324821400894821E-137</v>
       </c>
       <c r="O42">
-        <v>4.611309212652221E-11</v>
+        <v>7.6928216804556194E-123</v>
       </c>
       <c r="P42">
-        <v>2.539465936751503E-13</v>
+        <v>6.4848033668364826E-109</v>
       </c>
       <c r="Q42">
-        <v>8.6005634875420422E-16</v>
+        <v>7.9358010911632509E-96</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -2582,52 +2582,52 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.528149941490008E-70</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>5.5395999407295149E-65</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>7.4648465894776836E-60</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>6.1566454285156547E-55</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>7.2740824799630337E-22</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>6.1544825400298834E-19</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3.202371983683637E-16</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1.024250972652172E-13</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.54580795583563424</v>
+        <v>6.9539822058548637E-256</v>
       </c>
       <c r="K43">
-        <v>1.783162544835484</v>
+        <v>1.350115613975324E-235</v>
       </c>
       <c r="L43">
-        <v>3.5826873940933401</v>
+        <v>3.805319795559611E-216</v>
       </c>
       <c r="M43">
-        <v>4.4267010714537998</v>
+        <v>1.557019944173159E-197</v>
       </c>
       <c r="N43">
-        <v>1.068040569490744E-7</v>
+        <v>6.3126662070938849E-152</v>
       </c>
       <c r="O43">
-        <v>1.3473380346103891E-9</v>
+        <v>2.1634729044442988E-136</v>
       </c>
       <c r="P43">
-        <v>1.045279181863417E-11</v>
+        <v>1.0763980705538001E-121</v>
       </c>
       <c r="Q43">
-        <v>4.9871726066098483E-14</v>
+        <v>7.7745842908224038E-108</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -2635,52 +2635,52 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.2436268025485531E-74</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1.001253480427325E-68</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1.9007460995646701E-63</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2.2084366601133071E-58</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>4.6905918665831138E-24</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>5.5908591749376524E-21</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4.0982304056300837E-18</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1.8465818507667959E-15</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.17689300482768719</v>
+        <v>2.7440736793898909E-275</v>
       </c>
       <c r="K44">
-        <v>0.81414041635355594</v>
+        <v>3.1444410474275779E-254</v>
       </c>
       <c r="L44">
-        <v>2.3043841614849949</v>
+        <v>5.2308704147737934E-234</v>
       </c>
       <c r="M44">
-        <v>4.0111023685180474</v>
+        <v>1.263244105601452E-214</v>
       </c>
       <c r="N44">
-        <v>1.739722256868528E-6</v>
+        <v>5.8747817681042443E-167</v>
       </c>
       <c r="O44">
-        <v>3.0917639144380061E-8</v>
+        <v>1.188339893234989E-150</v>
       </c>
       <c r="P44">
-        <v>3.3790890680095842E-10</v>
+        <v>3.4895741493474123E-135</v>
       </c>
       <c r="Q44">
-        <v>2.271220618275743E-12</v>
+        <v>1.4876028468130151E-120</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -2688,52 +2688,52 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.2684087325910868E-78</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1.421304413913848E-72</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>3.8010602905647083E-67</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>6.2216157065187332E-62</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2.3754970772151239E-26</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>3.9888067094292082E-23</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>4.1190626149829322E-20</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2.6146175365161179E-17</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>4.502553541972748E-2</v>
+        <v>2.1148588301794559E-295</v>
       </c>
       <c r="K45">
-        <v>0.2919343011342842</v>
+        <v>1.4303403015753029E-273</v>
       </c>
       <c r="L45">
-        <v>1.164067801684016</v>
+        <v>1.4043656034367599E-252</v>
       </c>
       <c r="M45">
-        <v>2.8544650197998989</v>
+        <v>2.0017222059186469E-232</v>
       </c>
       <c r="N45">
-        <v>2.2256123303448E-5</v>
+        <v>1.067810218546294E-182</v>
       </c>
       <c r="O45">
-        <v>5.5720307874513285E-7</v>
+        <v>1.274833052837455E-165</v>
       </c>
       <c r="P45">
-        <v>8.5791528788926017E-9</v>
+        <v>2.2095069554489611E-149</v>
       </c>
       <c r="Q45">
-        <v>8.1234717394418744E-11</v>
+        <v>5.5593017407104049E-134</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -2741,52 +2741,52 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.586540441841022E-82</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1.5845560283228531E-76</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>5.9698420087691863E-71</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1.376571728909118E-65</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>9.4484111594112224E-29</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>2.2350377324165322E-25</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>3.2514557338565111E-22</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2.907536704316609E-19</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>9.0008710910867464E-3</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>8.2214489805267119E-2</v>
+        <v>1.270745896397705E-293</v>
       </c>
       <c r="L46">
-        <v>0.461826767618435</v>
+        <v>7.3639329952215632E-272</v>
       </c>
       <c r="M46">
-        <v>1.59537629193681</v>
+        <v>6.1950348695001944E-251</v>
       </c>
       <c r="N46">
-        <v>2.2361274202281891E-4</v>
+        <v>3.790703606039823E-199</v>
       </c>
       <c r="O46">
-        <v>7.8867508273436329E-6</v>
+        <v>2.6710952481688451E-181</v>
       </c>
       <c r="P46">
-        <v>1.7106714360519151E-7</v>
+        <v>2.73238401984411E-164</v>
       </c>
       <c r="Q46">
-        <v>2.281925466001818E-9</v>
+        <v>4.0576717781203493E-148</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -2794,52 +2794,52 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.6076059816663749E-86</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1.3874122493067389E-80</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>7.3637383127716169E-75</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2.3920592849985481E-69</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>2.951484430514653E-31</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>9.835674692505434E-28</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>2.0157409887189081E-24</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2.5393330861794418E-21</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1.41314793110072E-3</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1.8183983785672219E-2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.14389886047323869</v>
+        <v>7.5415895812398946E-292</v>
       </c>
       <c r="M47">
-        <v>0.70029168837564648</v>
+        <v>3.744614589530174E-270</v>
       </c>
       <c r="N47">
-        <v>1.7644973268300401E-3</v>
+        <v>2.6282641175195509E-216</v>
       </c>
       <c r="O47">
-        <v>8.7671848183898884E-5</v>
+        <v>1.093072217784242E-197</v>
       </c>
       <c r="P47">
-        <v>2.6789600047889001E-6</v>
+        <v>6.5995074287529107E-180</v>
       </c>
       <c r="Q47">
-        <v>5.0342950535148819E-8</v>
+        <v>5.7843825014265609E-163</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -2847,52 +2847,52 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.8472480893463002E-91</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>9.5407140212285099E-85</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>7.1336415703877841E-79</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>3.2645435098202747E-73</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>7.2410181915284007E-34</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>3.3993891391700052E-30</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>9.8145193910297482E-27</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1.7417730478404029E-23</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1.7424813618435381E-4</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>3.1586909355006132E-3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>3.5213811707873022E-2</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>0.24141944041923849</v>
+        <v>4.4207292440167669E-290</v>
       </c>
       <c r="N48">
-        <v>1.0935103340261749E-2</v>
+        <v>3.5591115916022548E-234</v>
       </c>
       <c r="O48">
-        <v>7.6541969522901957E-4</v>
+        <v>8.7363848927921908E-215</v>
       </c>
       <c r="P48">
-        <v>3.2949079428411858E-5</v>
+        <v>3.113183564813291E-196</v>
       </c>
       <c r="Q48">
-        <v>8.7227475797323896E-7</v>
+        <v>1.6104992042060939E-178</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -2900,52 +2900,52 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.008379230559399E-95</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>5.1526858039246137E-89</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>5.4275227391459487E-83</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3.4990521293183828E-77</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.395199171669825E-36</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>9.2273084401925625E-33</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>3.7530191210381458E-29</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>9.3829821451734201E-26</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1.687431239982616E-5</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>4.309259641615514E-4</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>6.7677787088007684E-3</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>6.5364649284905846E-2</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>5.3223350141026957E-2</v>
+        <v>9.4132073612101171E-253</v>
       </c>
       <c r="O49">
-        <v>5.2482743973056214E-3</v>
+        <v>1.3637604262593459E-232</v>
       </c>
       <c r="P49">
-        <v>3.182715138383747E-4</v>
+        <v>2.8682787650349371E-213</v>
       </c>
       <c r="Q49">
-        <v>1.186985390857318E-5</v>
+        <v>8.7576472277348977E-195</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -2953,52 +2953,52 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.0578517788037238E-100</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>2.185565735997152E-93</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>3.2431680139608168E-87</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>2.9454780684212451E-81</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2.1113012760133101E-39</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1.967100834538316E-35</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1.12711945464285E-31</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>3.9697910023281639E-28</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1.2833982949348059E-6</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>4.6171673841240309E-5</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1.021543091679978E-3</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1.389924022082671E-2</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>0.20345058973290081</v>
+        <v>4.8624714924752733E-272</v>
       </c>
       <c r="O50">
-        <v>2.8262518712978729E-2</v>
+        <v>4.1578405479228777E-251</v>
       </c>
       <c r="P50">
-        <v>2.4145137539669749E-3</v>
+        <v>5.1613273914744648E-231</v>
       </c>
       <c r="Q50">
-        <v>1.2685712710755779E-4</v>
+        <v>9.3011746938334271E-212</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -3006,52 +3006,52 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.1418806475723392E-104</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>7.2806728166017299E-98</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1.5220000748422211E-91</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1.9473257349430909E-85</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>2.5092367517734601E-42</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>3.2934845960253052E-38</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>2.6584992622512539E-34</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1.3190820952965151E-30</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>7.6660961167828651E-8</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>3.8853129486942323E-6</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1.21100144615002E-4</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>2.3212216669701411E-3</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0.61079170113710879</v>
+        <v>4.9056880956157457E-292</v>
       </c>
       <c r="O51">
-        <v>0.119531569420357</v>
+        <v>2.475831010123352E-270</v>
       </c>
       <c r="P51">
-        <v>1.438596590568327E-2</v>
+        <v>1.8139481954488831E-249</v>
       </c>
       <c r="Q51">
-        <v>1.064784692763961E-3</v>
+        <v>1.9293524780236081E-229</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -3059,52 +3059,52 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.9777982590377642E-109</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1.9048315931823992E-102</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>5.6096701930648806E-96</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1.011111017062092E-89</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2.3421273133360699E-45</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>4.3307396853456482E-41</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>4.9247089806023066E-37</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3.4423374134212177E-33</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>3.596371036960044E-9</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>2.567756404339811E-7</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1.1274831537567419E-5</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>3.0445253871241098E-4</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1.440140060813708</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>0.39703775796620228</v>
+        <v>2.8793707454063931E-290</v>
       </c>
       <c r="P52">
-        <v>6.7317162088124369E-2</v>
+        <v>1.245121617951207E-268</v>
       </c>
       <c r="Q52">
-        <v>7.0191763805768394E-3</v>
+        <v>7.8164359713980474E-248</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -3112,52 +3112,52 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.8018656650317441E-114</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>3.9139843563516131E-107</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1.6238182304629801E-100</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4.123220029405391E-94</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.7169465953921201E-48</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>4.4724547167860991E-44</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>7.1647662829317736E-40</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>7.0552511452577313E-36</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1.3250496510287089E-10</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1.3327818380247151E-8</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>8.2442829880431014E-7</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>3.136173011352146E-5</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>2.666820374726556</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>1.0357583116564999</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0.24739447734392139</v>
+        <v>1.6692527050424199E-288</v>
       </c>
       <c r="Q53">
-        <v>3.6340252573814388E-2</v>
+        <v>6.1848531704290061E-267</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -3165,52 +3165,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.6461480889009695E-119</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>6.3162456867741556E-112</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>3.6916024563133963E-105</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1.320540145129827E-98</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>9.8850871895797223E-52</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>3.6274986015904781E-47</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>8.1865499120869289E-43</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1.135661617596473E-38</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>3.8342218864518483E-12</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>5.4330254573309196E-10</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>4.7344894048234361E-8</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>2.5372184200284001E-6</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>3.8784681271219612</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>2.1220835245639411</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0.7140549453284657</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>0.14776349556806109</v>
+        <v>9.5581410394599688E-287</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -3218,52 +3218,52 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.9792923486878952E-124</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>8.0052771664473305E-117</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>6.5912816376665369E-110</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3.3215755529830691E-103</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>4.4697337165617497E-55</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>2.3107128769216629E-50</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>7.3464449583540025E-46</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1.4356971800102459E-41</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>8.7136429629376341E-14</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1.7394095224758931E-11</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>2.1353586890442748E-9</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>1.612104266928529E-7</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>4.4300039997250584</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>3.4146323412017949</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>1.618641575724743</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>0.4718715575684011</v>
+        <v>2.8849673143185778E-307</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -3271,52 +3271,52 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.2248081428040082E-129</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>7.968400622358691E-122</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>9.242772016589624E-115</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>6.5616655655058831E-108</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.5873044242820611E-58</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1.1560114738503081E-53</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>5.177629540384067E-49</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1.425457180188369E-44</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1.5552482068352769E-15</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>4.3736031720119669E-13</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>7.5639030443686012E-11</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>8.044625448648257E-9</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>3.973977822338338</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>4.315219129720286</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>2.8816894765597261</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1.1834716916438399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -3324,52 +3324,52 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.3444535044742528E-134</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>6.2293592505884238E-127</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1.017916236946612E-119</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1.018032111110477E-112</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>4.4270683979530343E-62</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>4.5420899854342732E-57</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>2.865907354757157E-52</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1.1115344661506169E-47</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>2.1801033729619581E-17</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>8.6368293288355542E-15</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>2.1042556374820351E-12</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>3.1527966381448591E-10</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>2.7997818195725102</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>4.2829123696240963</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>4.0292210949188174</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>2.3311454771590809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -3377,52 +3377,52 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.0217712675424101E-139</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>3.8246616723387962E-132</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>8.8043900085941195E-125</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1.240470073920295E-117</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>9.6972739834280265E-66</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1.401608596673915E-60</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1.245864324154038E-55</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>6.8072095632005682E-51</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>2.4001141294021348E-19</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1.3395123704140061E-16</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>4.5975713163464007E-14</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>9.7042844560913056E-12</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>1.549174602142805</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>3.338512080684866</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>4.4245840226230921</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>3.606270579520702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -3430,52 +3430,52 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.4973828588185033E-145</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1.844251303434743E-137</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>5.9808640667772652E-130</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1.187103362949809E-122</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.668247680782132E-69</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>3.3968408557263932E-64</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>4.2536013177728839E-59</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>3.2741060102785131E-54</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>2.0752199300666899E-21</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>1.6316107158275421E-18</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>7.8892529179196257E-16</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>2.3458946618456841E-13</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0.67321529894191656</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>2.0438270598504999</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>3.8159372432813932</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>4.3815187047922031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -3483,52 +3483,52 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.4017802806993427E-151</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>6.9843276305275768E-143</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>3.1908472959118771E-135</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>8.9221230464024042E-128</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2.2539735873914899E-73</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>6.4654845374375278E-68</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1.140565532290717E-62</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1.23678378454585E-57</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1.4092037653004521E-23</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1.5608594512243389E-20</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1.0632140643202889E-17</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>4.4538021951592548E-15</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>0.22976560367883889</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>0.98268146990102434</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>2.5846838541098069</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>4.1808872962770822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -3536,52 +3536,52 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.9849722839598881E-156</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>2.0773349957432159E-148</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>1.3369819336326439E-140</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>5.2665390738232038E-133</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>2.391743182005357E-77</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>9.6650562000361392E-72</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>2.4019343534743489E-66</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>3.6692073715258063E-61</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>7.5155520933749003E-26</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>1.17270419087807E-22</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>1.1253379783259569E-19</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>6.6409585903206901E-17</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>6.158762851362827E-2</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>0.37107254083039798</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>1.374963170316138</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>3.1332112710310591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -3589,52 +3589,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.291366359280732E-162</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>4.8525039833038888E-154</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>4.3996941402644707E-146</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>2.4415175039840839E-138</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.993231288820469E-81</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1.1347106191622379E-75</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>3.9726422162215223E-70</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>8.5492528404817655E-65</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>3.1479325130278269E-28</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>6.919752881103801E-25</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>9.3545449906376984E-22</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>7.7769274708751975E-19</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1.2965204692050061E-2</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0.1100480365574682</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>0.57444986274530885</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1.8441163955771991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -3642,52 +3642,52 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.2862296284261824E-168</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>8.9023095792343166E-160</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1.1370952952048831E-151</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>8.8893867821194739E-144</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.3046027102988899E-85</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1.046268822252585E-79</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>5.1603029924852587E-74</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1.564449304682626E-68</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1.03554116124128E-30</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>3.2067870593789059E-27</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>6.1071669102126397E-24</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>7.1525805000439251E-21</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>2.1435948409692508E-3</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>2.5632042121370331E-2</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>0.18849100235070851</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>0.85244115178256008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -3695,52 +3695,52 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.3838135160012452E-174</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1.282675839425274E-165</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>2.308068364581984E-157</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>2.5419159896811501E-149</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>6.7061966781551057E-90</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>7.576678826001891E-84</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>5.2643939416483365E-78</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>2.2483931684525329E-72</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>2.6753878372117009E-33</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1.167151113865728E-29</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>3.1313696661737489E-26</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>5.1664816268780462E-23</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>2.7834502145619733E-4</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>4.6887982576990731E-3</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>4.857429958934209E-2</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>0.30946954371676588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -3748,52 +3748,52 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.5213252255860058E-180</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1.4514716752061939E-171</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>3.6794076198741688E-163</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>5.7085789569639284E-155</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2.7073956400204328E-94</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>4.3091528697479138E-88</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>4.2179263107868491E-82</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2.5378178561837951E-76</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>5.4285464692620412E-36</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>3.3362722604776338E-32</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1.2609745464090039E-28</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>2.9309233001076078E-25</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>2.8385832891452771E-5</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>6.7362363278585153E-4</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>9.8310498767145219E-3</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>8.8236617479023949E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -3801,52 +3801,52 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.2214555804770641E-186</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>1.2899641631620041E-177</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>4.6066431118699832E-169</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1.006867356246402E-160</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>8.5842942024276082E-99</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.9247855680597979E-92</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>2.654159542105218E-86</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2.249707570257211E-80</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>8.6508304552138079E-39</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>7.4898532652901994E-35</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>3.9880053229826186E-31</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1.305844447800126E-27</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>2.273512021191954E-6</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>7.6006461187655709E-5</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>1.5626822568537411E-3</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1.9758647669291959E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -3854,52 +3854,52 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.100643209878563E-192</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>9.0037650656709133E-184</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>4.5296918785580358E-175</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>1.394742190957339E-166</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2.1376415918928079E-103</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>6.7522767710239705E-97</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1.3116938756175659E-90</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1.5662789811602149E-84</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1.082703324825298E-41</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>1.3205734562456421E-37</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>9.9056406231731676E-34</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>4.5693651967642618E-30</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>1.4301128115786971E-7</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>6.7353650520596487E-6</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>1.9508276028949229E-4</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>3.4749056098168558E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -3907,52 +3907,52 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.2828504806268516E-199</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>4.9356924796372582E-190</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>3.4980835961817502E-181</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1.517375422951698E-172</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>4.1806385183666056E-108</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1.860353802765342E-101</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>5.0911440587925989E-95</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>8.5642551861512622E-89</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1.064237528748391E-44</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>1.8286443439373901E-40</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>1.932354644620885E-36</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>1.255734196918115E-32</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>7.0651399481472757E-9</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>4.6875854225034882E-7</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>1.912689756709549E-5</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>4.7996131718107068E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -3960,52 +3960,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.308870551115307E-205</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>2.1249536458449991E-196</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>2.1216274995355659E-187</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>1.296491224997789E-178</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>6.4213711657049047E-113</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>4.025485684588531E-106</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1.5519428000117091E-99</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3.6777949150267671E-93</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>8.2157099428308544E-48</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>1.9887187102460302E-43</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>2.9605236327872358E-39</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>2.7102977371989749E-35</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>2.7412501582114161E-10</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>2.5622097537266372E-8</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>1.472812974557445E-6</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>5.2065121966161492E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -4013,52 +4013,52 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.1415061131401298E-212</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>7.1850245714095258E-203</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1.0106144814183369E-193</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>8.7000860304014154E-185</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>7.7462294810624927E-118</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>6.8409821301534231E-111</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>3.7154674768270932E-104</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1.240403108442093E-97</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>4.9811435264763838E-51</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>1.6986147913926899E-46</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>3.5622767663348372E-42</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>4.5942403613774318E-38</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>8.3532215428721983E-12</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>1.099911124321419E-9</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>8.9069312461787945E-8</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>4.4357286706709701E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -4066,52 +4066,52 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.9218383904612949E-219</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>1.9080268589092101E-209</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>3.7807618979064261E-200</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>4.585164716881214E-191</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>7.3388899142111645E-123</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>9.1305314059504185E-116</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>6.9860010565674618E-109</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>3.2856069843693021E-102</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2.371867599559029E-54</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>1.139446326717684E-49</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>3.3663883386906678E-45</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>6.1162869500518887E-41</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>1.9991103110906879E-13</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>3.7083262726029838E-11</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>4.230444752594514E-9</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2.9679766846359201E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -4119,52 +4119,52 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>8.7670326175511746E-226</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>3.9794049821207149E-216</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1.1108375891404889E-206</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1.8978582223221639E-197</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>5.4606936997700653E-128</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>9.5708626226978133E-121</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1.031623577153502E-113</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>6.8351147404293165E-107</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>8.8701151677871319E-58</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>6.0030266730089302E-53</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>2.498493352658937E-48</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>6.3949833972436716E-44</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>3.7574823371068487E-15</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>9.8191910670230827E-13</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>1.5780522718872339E-10</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1.5596725411796409E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -4172,52 +4172,52 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.019356561530121E-232</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>6.5182231448498358E-223</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>2.563298811449862E-213</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>6.169500715221047E-204</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>3.1911167220805259E-133</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>7.8792256760975953E-126</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1.1964410367958719E-118</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1.1167435043718309E-111</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>2.6052266014481771E-61</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>2.483842779077882E-56</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>1.4563629172825689E-51</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>5.2513192218306987E-47</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>5.5466985747795418E-17</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>2.0419773142322709E-14</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>4.6231094055228791E-12</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>6.4370042634136217E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -4225,52 +4225,52 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>9.3084431879950436E-240</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>8.3852832604146789E-230</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>4.645423732358572E-220</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1.5751202007208121E-210</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.4645863827725539E-138</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>5.0944045084195317E-131</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1.089779843908818E-123</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1.432974591621308E-116</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>6.00951161101862E-65</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>8.0715206366411911E-60</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>6.6671228133942166E-55</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>3.386685331035411E-50</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>6.4305721103348936E-19</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>3.335059175301133E-16</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>1.063712803315155E-13</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2.0864673667132479E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -4278,52 +4278,52 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.675832191363963E-247</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>8.4719557962561257E-237</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>6.611939357448041E-227</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>3.1583104185084649E-217</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>5.2791587667136829E-144</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>2.586906557332671E-136</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>7.7958535311266062E-129</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1.444112323115893E-121</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>1.0887051628910811E-68</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>2.059984959811369E-63</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>2.3970921381751539E-58</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>1.7153735262351009E-53</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>5.8552047830394468E-21</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>4.2779293183707959E-18</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>1.9221710472711148E-15</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>5.3114955938281375E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -4331,52 +4331,52 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.760202203305E-254</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>6.7224418391429548E-244</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>7.3911125958140243E-234</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>4.9736286242907456E-224</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.4944861131088379E-149</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1.031681128568749E-141</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>4.379918204411317E-134</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1.142985937890158E-126</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1.5490263858574161E-72</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>4.1290502370972127E-67</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>6.7687493004782207E-62</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>6.8237010045548878E-57</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>4.1870870927310798E-23</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>4.3096410023301118E-20</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>2.7279543933718869E-17</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.061938787528748E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -4384,52 +4384,52 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.6633912666319601E-261</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>4.1893616726244453E-251</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>6.4888570126289599E-241</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>6.1513342169145461E-231</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>3.3227408730235809E-155</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>3.231377231805758E-147</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1.9326168352078148E-139</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>7.1049042565816547E-132</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>1.730951015349515E-76</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>6.5000053395881214E-71</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>1.5010997750466701E-65</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>2.1318601129756241E-60</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>2.3515776788215922E-25</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>3.409777286508218E-22</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>3.040602222717489E-19</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1.66747592104071E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -4437,52 +4437,52 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.7790315252637313E-269</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>2.050435375670404E-258</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>4.4740828225974227E-248</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>5.9750662265636792E-238</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>5.8020102651840308E-161</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>7.9489042191878756E-153</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>6.6973492356866878E-145</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>3.4685902716535209E-137</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1.519106315896803E-80</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>8.0362731380161282E-75</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2.6144968318061368E-69</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>5.2308810980911578E-64</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>1.037251551752754E-27</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>2.118792181661414E-24</v>
+        <v>0</v>
       </c>
       <c r="P78">
-        <v>2.66170267534943E-21</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>2.0563502485628858E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -4490,52 +4490,52 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.576860010353125E-276</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>7.881733497750749E-266</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>2.4227983191207841E-255</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>4.5582018376873838E-245</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>7.9567908262824367E-167</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1.535692617588162E-158</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1.822793884193071E-150</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1.329919037029575E-142</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>1.047053782831216E-84</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>7.8032063958586645E-79</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>3.5763837191025863E-73</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>1.008018312172473E-67</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>3.5932405034513437E-30</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>1.034018095845775E-26</v>
+        <v>0</v>
       </c>
       <c r="P79">
-        <v>1.8299402212327161E-23</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1.9916454751167689E-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -4543,52 +4543,52 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.3791591355256073E-284</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>2.379440424003503E-273</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>1.030404952215574E-262</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>2.7310006889899058E-252</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>8.5698815390997658E-173</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>2.3301225259031951E-164</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>3.8962750621336432E-156</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4.0047446790213553E-148</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>5.6679660492971937E-89</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>5.9507119520572889E-83</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>3.8421784133273073E-77</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>1.525595589638423E-71</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>9.7761061589440505E-33</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>3.9631941292793021E-29</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>9.8807905600952856E-26</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1.514971312546649E-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -4596,52 +4596,52 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.6872403036752273E-292</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>5.6416397952276515E-281</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>3.441723998575695E-270</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>1.285072105858553E-259</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>7.249184038734732E-179</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>2.7767107994451448E-170</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>6.5409237149774319E-162</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>9.4711320673584185E-154</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>2.4096996770584181E-93</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>3.564036901247137E-87</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>3.241816104544406E-81</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>1.8133759705902541E-75</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>2.0889255442170711E-35</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>1.1929987314491989E-31</v>
+        <v>0</v>
       </c>
       <c r="P81">
-        <v>4.1900954279806143E-28</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>9.050534194560509E-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -4649,52 +4649,52 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7.5174741351505955E-300</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>1.0505417145518241E-288</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>9.02862410615036E-278</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>4.7490923302819976E-267</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>4.8159377158880943E-185</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>2.5987228772983529E-176</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>8.6239452089856251E-168</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1.7591642121536421E-159</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>8.045925888713308E-98</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>1.6764587995021981E-91</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>2.1482095966778621E-85</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>1.6928314454042591E-79</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>3.505560297512336E-38</v>
+        <v>0</v>
       </c>
       <c r="O82">
-        <v>2.8204087091431559E-34</v>
+        <v>0</v>
       </c>
       <c r="P82">
-        <v>1.395511961699434E-30</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>4.246405339051946E-27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -4702,52 +4702,52 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.8040444677407295E-308</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>1.5363801199767431E-296</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1.860135295644931E-285</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1.3783869686518061E-274</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>2.5127543116857089E-191</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>1.9101466853491419E-182</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>8.929976631074083E-174</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>2.5661869925322742E-165</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>2.1099228024801421E-102</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>6.1932841591842313E-96</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>1.1180014288225711E-89</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>1.2411292423189989E-83</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>4.6202912361338304E-41</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>5.2367463839807212E-37</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>3.6502334627643233E-33</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.564754143094186E-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1.764661803007975E-304</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>3.0098504958173813E-293</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>3.1420213619635241E-282</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.0296665903574071E-197</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>1.102683555553109E-188</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>7.2622648847689906E-180</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2.9400021400048378E-171</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>4.3454477536663141E-107</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>1.796910961214846E-100</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>4.5696768975554329E-94</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>7.1465712493179254E-88</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>4.7825408830250884E-44</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>7.636396416452471E-40</v>
+        <v>0</v>
       </c>
       <c r="P84">
-        <v>7.4986856833425647E-36</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>4.5284356663741788E-32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -4814,46 +4814,46 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>3.8249234143973239E-301</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>5.6250260417880554E-290</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>3.313756900854691E-204</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>4.9993380690191608E-195</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>4.6384328912132633E-186</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2.6453578110250221E-177</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>7.028779655569098E-112</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>4.0945816741287706E-105</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1.4669187466564609E-98</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>3.2318848354742152E-92</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>3.8879928707105389E-47</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>8.7456646025054953E-43</v>
+        <v>0</v>
       </c>
       <c r="P85">
-        <v>1.2098376265012091E-38</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.029266229429527E-34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -4870,43 +4870,43 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>7.9089234247687437E-298</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>8.3757189910740968E-211</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>1.7801292781130679E-201</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>2.326740230542872E-192</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1.8693844625419029E-183</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>8.928998588935655E-117</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>7.3277382550025337E-110</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>3.6983163087797559E-103</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>1.147866694496555E-96</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>2.4823879693175731E-50</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>7.8663741719689587E-46</v>
+        <v>0</v>
       </c>
       <c r="P86">
-        <v>1.533015173776408E-41</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>1.8373194573976599E-37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -4923,43 +4923,43 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>8.7334860957057628E-306</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.6626505501919941E-217</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>4.9781503570841391E-208</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>9.1664663775732816E-199</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1.037505155992234E-189</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>8.9084676863755382E-122</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1.0299301859963369E-114</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>7.3228388310461798E-108</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>3.2018756571811857E-101</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>1.2447762255039189E-53</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>5.5569157401275196E-49</v>
+        <v>0</v>
       </c>
       <c r="P87">
-        <v>1.5256090248326461E-44</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>2.5758410148300329E-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -4979,40 +4979,40 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2.5921330646436938E-224</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1.0933567874572031E-214</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>2.8361776462374068E-205</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>4.5222995698201307E-196</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>6.9804061576157759E-127</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>1.136902064549694E-119</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1.1387603263876979E-112</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>7.0144705953458669E-106</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4.9021922759234771E-57</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>3.08297818875846E-52</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>1.192387663080309E-47</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>2.8361608856210339E-43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -5032,40 +5032,40 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>3.1738838726598442E-231</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1.8859632695707581E-221</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>6.8919535051865256E-212</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1.548124277587142E-202</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>4.2957184205449058E-132</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>9.8563417300519538E-125</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>1.390793364098658E-117</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>1.2068763165355601E-110</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>1.5162360805649251E-60</v>
+        <v>0</v>
       </c>
       <c r="O89">
-        <v>1.343335593361896E-55</v>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>7.3192929202052623E-51</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>2.452562601725261E-46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -5085,40 +5085,40 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>3.0521242009956159E-238</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>2.5549475233371701E-228</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1.3153116820441371E-218</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>4.1622651613846602E-209</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>2.076195992940634E-137</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>6.7109789901012888E-130</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>1.3340445125013579E-122</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>1.630827626990655E-115</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>3.6831613262607372E-64</v>
+        <v>0</v>
       </c>
       <c r="O90">
-        <v>4.5970160619539347E-59</v>
+        <v>0</v>
       </c>
       <c r="P90">
-        <v>3.5285657264440271E-54</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1.6656615826292509E-49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -5138,40 +5138,40 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>2.305105472109642E-245</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>2.7183674915590749E-235</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>1.9714803148321789E-225</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>8.7888306419719301E-216</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>7.8809454268740453E-143</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>3.5886692638156077E-135</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>1.00497546878689E-127</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>1.7307358289596098E-120</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>7.0267109030595659E-68</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>1.235506258024922E-62</v>
+        <v>0</v>
       </c>
       <c r="P91">
-        <v>1.335994665365976E-57</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>8.884456513117697E-53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -5191,40 +5191,40 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.36727801330777E-252</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>2.271494975874251E-242</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>2.3207782299397802E-232</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1.4575044082709461E-222</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>2.3494473711248461E-148</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1.5071567404501641E-140</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>5.9459058786913088E-133</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>1.4425502087368439E-125</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>1.0528363217880339E-71</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>2.6079022382607508E-66</v>
+        <v>0</v>
       </c>
       <c r="P92">
-        <v>3.972726486046938E-61</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>3.7217945192451318E-56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -5244,40 +5244,40 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>6.3694258745338058E-260</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1.4907088249162879E-249</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>2.1456173288367842E-239</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1.8983054183365011E-229</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>5.5008594820416988E-154</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>4.971195405609051E-146</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>2.7628545922944667E-138</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>9.4429680610633628E-131</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>1.2389308345690601E-75</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>4.3232972225806918E-70</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>9.2779074687781441E-65</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>1.2244790168601329E-59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -5297,40 +5297,40 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>2.3303501137232879E-267</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>7.6833619689782147E-257</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1.557931374349565E-246</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1.941778673619555E-236</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>1.01151612518882E-159</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>1.287777041229348E-151</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>1.008266775794006E-143</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>4.8547126912477256E-136</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>1.145013728012651E-79</v>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>5.6288063788438373E-74</v>
+        <v>0</v>
       </c>
       <c r="P94">
-        <v>1.7017228763782729E-68</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>3.16393630447481E-63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -5350,40 +5350,40 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>6.6960623795257464E-275</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>3.110191957302419E-264</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>8.8842712153653386E-254</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1.5599504216033249E-243</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1.4608058490556699E-165</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>2.619979848440736E-157</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>2.8898168145563531E-149</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>1.9601800922479241E-141</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>8.3109707661208203E-84</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>5.7556576671476777E-78</v>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>2.4513485498940881E-72</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>6.4206876863348551E-67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -5403,40 +5403,40 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.511107065449582E-282</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>9.8878193573564295E-272</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>3.978988847558834E-261</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>9.8423610855573684E-251</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>1.656874511132168E-171</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>4.1863222221156819E-163</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>6.5049295890820661E-155</v>
+        <v>0</v>
       </c>
       <c r="M96">
-        <v>6.2159261303265664E-147</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>4.7377293238673208E-88</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>4.6222244419919229E-82</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>2.7733119655320539E-76</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1.0233231254089179E-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -5456,40 +5456,40 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>2.678233332358872E-290</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>2.4688305478297429E-279</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1.3995907546635049E-268</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>4.8771399874697474E-258</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1.475924574815908E-177</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>5.2534521912070139E-169</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>1.149985370590006E-160</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>1.5480790894329611E-152</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>2.1211245204605729E-92</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>2.9153085982714951E-86</v>
+        <v>0</v>
       </c>
       <c r="P97">
-        <v>2.4641651628160568E-80</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>1.2809183899984181E-74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -5509,40 +5509,40 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>3.7280267049219459E-298</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>4.8412718550368139E-287</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>3.8664004912459857E-276</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1.8980540601631099E-265</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>1.0325620049150011E-183</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>5.1776697348396413E-175</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>1.5966857904364461E-166</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>3.028013963106534E-158</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>7.4582942464097517E-97</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>1.4440940098214819E-90</v>
+        <v>0</v>
       </c>
       <c r="P98">
-        <v>1.7195639458383981E-84</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>1.2592372501291821E-78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -5562,40 +5562,40 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>4.0755577158251648E-306</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>7.4559860685231867E-295</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>8.3886106772082429E-284</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>5.8013539541677629E-273</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>5.6734279757355246E-190</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>4.0077565693229871E-181</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>1.741101278264047E-172</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>4.6515750431612048E-164</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>2.0596351324963678E-101</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>5.6180270864289329E-95</v>
+        <v>0</v>
       </c>
       <c r="P99">
-        <v>9.4241952916738911E-89</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>9.7223464536622158E-83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -5618,37 +5618,37 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>9.0183717679499283E-303</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>1.4293897703460741E-291</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1.3926038087786239E-280</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>2.4482309316835329E-196</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>2.4363840836128441E-187</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>1.491097484753195E-178</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>5.6120252872937703E-170</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>4.4670261875386637E-106</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>1.716522973274492E-99</v>
+        <v>0</v>
       </c>
       <c r="P100">
-        <v>4.0564642500829577E-93</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>5.8953833826723412E-87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -5674,34 +5674,34 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1.9128844189997869E-299</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2.625446802474492E-288</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>8.2972971683655034E-203</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>1.163235377553843E-193</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>1.0029181020261191E-184</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>5.3176118796293887E-176</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <v>7.6089395701554317E-111</v>
+        <v>0</v>
       </c>
       <c r="O101">
-        <v>4.1190099489624678E-104</v>
+        <v>0</v>
       </c>
       <c r="P101">
-        <v>1.3712873124656101E-97</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>2.8075690237523698E-91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -5727,34 +5727,34 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>2.0105006553343121E-307</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>3.8873737386014441E-296</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>2.2085047512956429E-209</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>4.3618113619694291E-200</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>5.297882620284416E-191</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>3.9572280785804149E-182</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>1.017904889924257E-115</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>7.7627123029144391E-109</v>
+        <v>0</v>
       </c>
       <c r="P102">
-        <v>3.6407150744982907E-102</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>1.0500893661538109E-95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -5783,31 +5783,31 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>4.5205033892300384E-304</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>4.6167617206985421E-216</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>1.2845280318393801E-206</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>2.1979439985161031E-197</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>2.3128259802440728E-188</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>1.069467756796593E-120</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>1.148977621541057E-113</v>
+        <v>0</v>
       </c>
       <c r="P103">
-        <v>7.5914083886401621E-107</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>3.0846046449717498E-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -5839,28 +5839,28 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>7.5797348237891327E-223</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>2.9709662765012892E-213</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>7.1615716785419563E-204</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>1.0616277488868681E-194</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>8.8248152042027966E-126</v>
+        <v>0</v>
       </c>
       <c r="O104">
-        <v>1.3356328084507671E-118</v>
+        <v>0</v>
       </c>
       <c r="P104">
-        <v>1.243184103197483E-111</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>7.1162334228646753E-105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -5892,28 +5892,28 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>9.7734521970132711E-230</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>5.3967125611425526E-220</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>1.8326413969736921E-210</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>3.827180941642008E-201</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>5.7190115448849539E-131</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>1.2193826635108111E-123</v>
+        <v>0</v>
       </c>
       <c r="P105">
-        <v>1.5989171839146851E-116</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>1.289372167569652E-109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -5945,28 +5945,28 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>9.897360821421096E-237</v>
+        <v>0</v>
       </c>
       <c r="K106">
-        <v>7.6990702402057817E-227</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>3.6831895619247376E-217</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>1.0835854334845081E-207</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>2.910809314075949E-136</v>
+        <v>0</v>
       </c>
       <c r="O106">
-        <v>8.7431993986184239E-129</v>
+        <v>0</v>
       </c>
       <c r="P106">
-        <v>1.615079561055054E-121</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>1.8347792784033511E-114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -5998,28 +5998,28 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>7.8716947170783804E-244</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>8.6263029357278299E-234</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>5.8136392475813103E-224</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>2.4094879038533839E-214</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>1.163547099319826E-141</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>4.9235480337943523E-134</v>
+        <v>0</v>
       </c>
       <c r="P107">
-        <v>1.281265999321941E-126</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>2.0505331337767239E-119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -6051,28 +6051,28 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>4.9169355021033207E-251</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>7.5908176444063E-241</v>
+        <v>0</v>
       </c>
       <c r="L108">
-        <v>7.2069169305356167E-231</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>4.2078841240832852E-221</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>3.652848066968264E-147</v>
+        <v>0</v>
       </c>
       <c r="O108">
-        <v>2.177526277511983E-139</v>
+        <v>0</v>
       </c>
       <c r="P108">
-        <v>7.9829261408853014E-132</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>1.7998121742417971E-124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -6104,28 +6104,28 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2.4121161108655628E-258</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>5.2460187752705996E-248</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>7.0166268767031423E-238</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>5.7713873395929354E-228</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>9.0065129818890018E-153</v>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>7.5635565658543912E-145</v>
+        <v>0</v>
       </c>
       <c r="P109">
-        <v>3.906270825007743E-137</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>1.2406949320115711E-129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -6157,28 +6157,28 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>9.2935007122008937E-266</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>2.847400467315485E-255</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>5.3651847106690407E-245</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>6.2169031577138172E-235</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>1.7440509936697479E-158</v>
+        <v>0</v>
       </c>
       <c r="O110">
-        <v>2.0633178868194969E-150</v>
+        <v>0</v>
       </c>
       <c r="P110">
-        <v>1.5012050548124439E-142</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>6.7170759757002758E-135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -6210,28 +6210,28 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>2.812146184393355E-273</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>1.213793179013001E-262</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>3.2219470818647152E-252</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>5.2595115288253189E-242</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>2.652400540963126E-164</v>
+        <v>0</v>
       </c>
       <c r="O111">
-        <v>4.4206248039781109E-156</v>
+        <v>0</v>
       </c>
       <c r="P111">
-        <v>4.5310109884672127E-148</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>2.8560969281519802E-140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -6263,28 +6263,28 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>6.6830372005840757E-281</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>4.063668406534168E-270</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>1.519600953138752E-259</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>3.4945732627749338E-249</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>3.1680823788087779E-170</v>
+        <v>0</v>
       </c>
       <c r="O112">
-        <v>7.4383840655939014E-162</v>
+        <v>0</v>
       </c>
       <c r="P112">
-        <v>1.074057771824614E-153</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>9.537686712795476E-146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -6316,28 +6316,28 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1.247347019000791E-288</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>1.068487046796415E-277</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>5.6288301061776914E-267</v>
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>1.8235610918224469E-256</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>2.9718798901639861E-176</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>9.8299423330590246E-168</v>
+        <v>0</v>
       </c>
       <c r="P113">
-        <v>1.9995745373461951E-159</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>2.501442895449491E-151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -6369,28 +6369,28 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.8284291546714179E-296</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>2.2064682876749341E-285</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>1.6375107254112491E-274</v>
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>7.4734978546495569E-264</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>2.1894925399964611E-182</v>
+        <v>0</v>
       </c>
       <c r="O114">
-        <v>1.020236298148932E-173</v>
+        <v>0</v>
       </c>
       <c r="P114">
-        <v>2.9236473226936922E-165</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>5.1524710732233319E-157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -6422,28 +6422,28 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>2.1049724247954279E-304</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>3.5785208137829721E-293</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>3.7413435999946448E-282</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>2.4054976682197951E-271</v>
+        <v>0</v>
       </c>
       <c r="N115">
-        <v>1.266873102668716E-188</v>
+        <v>0</v>
       </c>
       <c r="O115">
-        <v>8.3162588940361331E-180</v>
+        <v>0</v>
       </c>
       <c r="P115">
-        <v>3.3572972685378419E-171</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>8.3352371521624837E-163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -6478,25 +6478,25 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>4.558131333694606E-301</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>6.7134918513717244E-290</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>6.0808374687440641E-279</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>5.7570525099280671E-195</v>
+        <v>0</v>
       </c>
       <c r="O116">
-        <v>5.3239339663045781E-186</v>
+        <v>0</v>
       </c>
       <c r="P116">
-        <v>3.0278338550838419E-177</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>1.059004458529606E-168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -6534,22 +6534,22 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>9.4612118360582893E-298</v>
+        <v>0</v>
       </c>
       <c r="M117">
-        <v>1.2072557431440359E-286</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>2.054682371990212E-201</v>
+        <v>0</v>
       </c>
       <c r="O117">
-        <v>2.6767927584887629E-192</v>
+        <v>0</v>
       </c>
       <c r="P117">
-        <v>2.1446267240557669E-183</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>1.0567081221352179E-174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -6587,22 +6587,22 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <v>1.04718278953598E-305</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>1.8824029461276181E-294</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>5.7592592494790111E-208</v>
+        <v>0</v>
       </c>
       <c r="O118">
-        <v>1.0569982456398171E-198</v>
+        <v>0</v>
       </c>
       <c r="P118">
-        <v>1.193022997226009E-189</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>8.2811324668975223E-181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -6643,19 +6643,19 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>2.3051720061292871E-302</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>1.2678445007159081E-214</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>3.2780170902963649E-205</v>
+        <v>0</v>
       </c>
       <c r="P119">
-        <v>5.2122273004036522E-196</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>5.0968499381426008E-187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -6699,16 +6699,16 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>2.1920112726442311E-221</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>7.9840930491876366E-212</v>
+        <v>0</v>
       </c>
       <c r="P120">
-        <v>1.788443839790402E-202</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>2.4637202434401411E-193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -6752,16 +6752,16 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>2.9764391236010882E-228</v>
+        <v>0</v>
       </c>
       <c r="O121">
-        <v>1.527275535767928E-218</v>
+        <v>0</v>
       </c>
       <c r="P121">
-        <v>4.8195300983214028E-209</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>9.3531600479878117E-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -6805,16 +6805,16 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>3.1741588339695472E-235</v>
+        <v>0</v>
       </c>
       <c r="O122">
-        <v>2.2944924336619689E-225</v>
+        <v>0</v>
       </c>
       <c r="P122">
-        <v>1.0200266432916939E-215</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>2.7887062440750698E-206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -6858,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>2.6585065498724721E-242</v>
+        <v>0</v>
       </c>
       <c r="O123">
-        <v>2.7072807413030209E-232</v>
+        <v>0</v>
       </c>
       <c r="P123">
-        <v>1.695492074197534E-222</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>6.5301717156101321E-213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -6911,16 +6911,16 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>1.74873597158343E-249</v>
+        <v>0</v>
       </c>
       <c r="O124">
-        <v>2.5087500088925139E-239</v>
+        <v>0</v>
       </c>
       <c r="P124">
-        <v>2.2133874409621679E-229</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>1.2009470596329499E-219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -6964,16 +6964,16 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>9.0341684016070623E-257</v>
+        <v>0</v>
       </c>
       <c r="O125">
-        <v>1.8258239915407579E-246</v>
+        <v>0</v>
       </c>
       <c r="P125">
-        <v>2.2693242187076841E-236</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>1.7346048409021662E-226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -7017,16 +7017,16 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>3.665468985697312E-264</v>
+        <v>0</v>
       </c>
       <c r="O126">
-        <v>1.0436091089928921E-253</v>
+        <v>0</v>
       </c>
       <c r="P126">
-        <v>1.8273135891325409E-243</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>1.9676809190644039E-233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -7070,16 +7070,16 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>1.1680148002026051E-271</v>
+        <v>0</v>
       </c>
       <c r="O127">
-        <v>4.6848343785602822E-261</v>
+        <v>0</v>
       </c>
       <c r="P127">
-        <v>1.155598711887903E-250</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>1.753017387004041E-240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -7123,16 +7123,16 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>2.9231060497279731E-279</v>
+        <v>0</v>
       </c>
       <c r="O128">
-        <v>1.651688146957162E-268</v>
+        <v>0</v>
       </c>
       <c r="P128">
-        <v>5.73955792772706E-258</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>1.22657808846792E-247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -7176,16 +7176,16 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>5.7453729706306011E-287</v>
+        <v>0</v>
       </c>
       <c r="O129">
-        <v>4.5734010963320572E-276</v>
+        <v>0</v>
       </c>
       <c r="P129">
-        <v>2.2388617005119779E-265</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>6.7403369897623822E-255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -7229,16 +7229,16 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>8.868890875277124E-295</v>
+        <v>0</v>
       </c>
       <c r="O130">
-        <v>9.9455306504417701E-284</v>
+        <v>0</v>
       </c>
       <c r="P130">
-        <v>6.8588849783692041E-273</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>2.9090115604799048E-262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -7282,16 +7282,16 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <v>1.075221215274958E-302</v>
+        <v>0</v>
       </c>
       <c r="O131">
-        <v>1.698611492055865E-291</v>
+        <v>0</v>
       </c>
       <c r="P131">
-        <v>1.650278349284258E-280</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>9.860222463409315E-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -7338,13 +7338,13 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>2.2784399404634099E-299</v>
+        <v>0</v>
       </c>
       <c r="P132">
-        <v>3.118446612253009E-288</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>2.6248555533911119E-277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -7391,13 +7391,13 @@
         <v>0</v>
       </c>
       <c r="O133">
-        <v>2.4002614020914581E-307</v>
+        <v>0</v>
       </c>
       <c r="P133">
-        <v>4.6280373360384262E-296</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>5.4878411748754897E-285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P134">
-        <v>5.3942717793493396E-304</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>9.011043534727666E-293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>1.162053361090607E-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
